--- a/InputData/ccs/BFoCPAbI/BAU Fraction of CCS Potential Achieved by Industry.xlsx
+++ b/InputData/ccs/BFoCPAbI/BAU Fraction of CCS Potential Achieved by Industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\GA\ccs\BFoCPAbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001B59C2-488D-47D8-800E-2DE8763F1836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA40CB73-509A-4E2B-B434-18CFBC0AE35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="145" windowWidth="5920" windowHeight="5620" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1515" windowWidth="15855" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -560,829 +560,829 @@
     <t>Time (Year)</t>
   </si>
   <si>
-    <t>Process Emissions before CCS[agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,construction 41T43,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,agriculture and forestry 01T03,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,coal mining 05,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,oil and gas extraction 06,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other mining and quarrying 07T08,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,food beverage and tobacco 10T12,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,textiles apparel and leather 13T15,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,wood products 16,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,pulp paper and printing 17T18,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,refined petroleum and coke 19,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,chemicals 20,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,rubber and plastic products 22,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,glass and glass products 231,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,cement and other nonmetallic minerals 239,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,iron and steel 241,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other metals 242,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,metal products except machinery and vehicles 25,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,computers and electronics 26,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,appliances and electrical equipment 27,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other machinery 28,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,road vehicles 29,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,nonroad vehicles 30,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other manufacturing 31T33,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,energy pipelines and gas processing 352T353,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,water and waste 36T39,CO2] : NoSettings</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,construction 41T43,CO2] : NoSettings</t>
+    <t>Process Emissions before CCS[agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,construction 41T43,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,agriculture and forestry 01T03,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,coal mining 05,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,oil and gas extraction 06,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other mining and quarrying 07T08,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,food beverage and tobacco 10T12,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,textiles apparel and leather 13T15,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,wood products 16,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,pulp paper and printing 17T18,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,refined petroleum and coke 19,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,chemicals 20,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,rubber and plastic products 22,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,glass and glass products 231,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,cement and other nonmetallic minerals 239,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,iron and steel 241,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other metals 242,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,metal products except machinery and vehicles 25,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,computers and electronics 26,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,appliances and electrical equipment 27,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other machinery 28,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,road vehicles 29,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,nonroad vehicles 30,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other manufacturing 31T33,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,energy pipelines and gas processing 352T353,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,water and waste 36T39,CO2] : test</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,construction 41T43,CO2] : test</t>
   </si>
   <si>
     <t>Georgia</t>
@@ -2041,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2061,7 +2061,7 @@
         <v>449</v>
       </c>
       <c r="C1" s="39">
-        <v>45369</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000817FC-5CAD-42B5-92F8-1A675198574D}">
   <dimension ref="A25:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -3725,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D869D793-4D45-441A-BEF3-5973BA28AC13}">
   <dimension ref="A1:AE300"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:AE280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12359,61 +12359,61 @@
         <v>0</v>
       </c>
       <c r="M94" s="38">
-        <v>943243</v>
+        <v>1001080</v>
       </c>
       <c r="N94" s="38">
-        <v>1871960</v>
+        <v>2002150</v>
       </c>
       <c r="O94" s="38">
-        <v>2836590</v>
+        <v>3003230</v>
       </c>
       <c r="P94" s="38">
-        <v>3769100</v>
+        <v>4004300</v>
       </c>
       <c r="Q94" s="38">
-        <v>4690350</v>
+        <v>5005380</v>
       </c>
       <c r="R94" s="38">
-        <v>4686590</v>
+        <v>5005380</v>
       </c>
       <c r="S94" s="38">
-        <v>4645910</v>
+        <v>5005380</v>
       </c>
       <c r="T94" s="38">
-        <v>4681080</v>
+        <v>5005380</v>
       </c>
       <c r="U94" s="38">
-        <v>4695760</v>
+        <v>5005380</v>
       </c>
       <c r="V94" s="38">
-        <v>4687030</v>
+        <v>5005380</v>
       </c>
       <c r="W94" s="38">
-        <v>4670400</v>
+        <v>5005380</v>
       </c>
       <c r="X94" s="38">
-        <v>4669000</v>
+        <v>5005380</v>
       </c>
       <c r="Y94" s="38">
-        <v>4686670</v>
+        <v>5005380</v>
       </c>
       <c r="Z94" s="38">
-        <v>4701120</v>
+        <v>5005380</v>
       </c>
       <c r="AA94" s="38">
-        <v>4720810</v>
+        <v>5005380</v>
       </c>
       <c r="AB94" s="38">
-        <v>4690790</v>
+        <v>5005380</v>
       </c>
       <c r="AC94" s="38">
-        <v>4679380</v>
+        <v>5005380</v>
       </c>
       <c r="AD94" s="38">
-        <v>4700960</v>
+        <v>5005380</v>
       </c>
       <c r="AE94" s="38">
-        <v>4704050</v>
+        <v>5005380</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">

--- a/InputData/ccs/BFoCPAbI/BAU Fraction of CCS Potential Achieved by Industry.xlsx
+++ b/InputData/ccs/BFoCPAbI/BAU Fraction of CCS Potential Achieved by Industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\GA\ccs\BFoCPAbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BFoCPAbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA40CB73-509A-4E2B-B434-18CFBC0AE35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A36A933-BC91-4634-BA18-BDCAB23ADDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1515" windowWidth="15855" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="451">
   <si>
     <t>Notes</t>
   </si>
@@ -560,832 +560,835 @@
     <t>Time (Year)</t>
   </si>
   <si>
-    <t>Process Emissions before CCS[agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Process Emissions before CCS[construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heat if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,agriculture and forestry 01T03,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,coal mining 05,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,oil and gas extraction 06,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other mining and quarrying 07T08,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,food beverage and tobacco 10T12,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,textiles apparel and leather 13T15,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,wood products 16,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,pulp paper and printing 17T18,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,refined petroleum and coke 19,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,chemicals 20,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,rubber and plastic products 22,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,glass and glass products 231,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,cement and other nonmetallic minerals 239,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,iron and steel 241,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other metals 242,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,metal products except machinery and vehicles 25,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,computers and electronics 26,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,appliances and electrical equipment 27,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other machinery 28,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,road vehicles 29,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,nonroad vehicles 30,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other manufacturing 31T33,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,energy pipelines and gas processing 352T353,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,water and waste 36T39,CO2] : test</t>
-  </si>
-  <si>
-    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,construction 41T43,CO2] : test</t>
-  </si>
-  <si>
-    <t>Georgia</t>
+    <t>Process Emissions before CCS[agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Process Emissions before CCS[construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[electricity if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hard coal if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[natural gas if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[biomass if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[petroleum diesel if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heat if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[crude oil if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[heavy or residual fuel oil if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[LPG propane or butane if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,agriculture and forestry 01T03,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,coal mining 05,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,oil and gas extraction 06,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other mining and quarrying 07T08,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,food beverage and tobacco 10T12,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,textiles apparel and leather 13T15,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,wood products 16,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,pulp paper and printing 17T18,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,refined petroleum and coke 19,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,chemicals 20,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,rubber and plastic products 22,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,glass and glass products 231,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,cement and other nonmetallic minerals 239,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,iron and steel 241,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other metals 242,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,metal products except machinery and vehicles 25,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,computers and electronics 26,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,appliances and electrical equipment 27,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other machinery 28,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,road vehicles 29,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,nonroad vehicles 30,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,other manufacturing 31T33,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,energy pipelines and gas processing 352T353,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,water and waste 36T39,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Energy Related Emissions before CCS[hydrogen if,construction 41T43,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>We map gas processing CCS to the oil and gas 06 industry category, as BAU emissions from gas processing are assigned to that</t>
+  </si>
+  <si>
+    <t>industry in EPS file indst/BPE.</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1577,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1634,7 +1637,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2039,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,18 +2055,12 @@
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1" s="39">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2072,60 +2068,60 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>160</v>
       </c>
@@ -2200,6 +2196,16 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3490,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000817FC-5CAD-42B5-92F8-1A675198574D}">
   <dimension ref="A25:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3536,6 +3542,15 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3677,15 +3692,6 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
-      </c>
-      <c r="B49">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>16</v>
-      </c>
-      <c r="D49">
-        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D869D793-4D45-441A-BEF3-5973BA28AC13}">
   <dimension ref="A1:AE300"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:AE280"/>
     </sheetView>
   </sheetViews>
@@ -3845,40 +3851,40 @@
         <v>8200000000000</v>
       </c>
       <c r="D4" s="38">
-        <v>-43650000000000</v>
+        <v>8294000000000</v>
       </c>
       <c r="E4" s="38">
-        <v>-43610000000000</v>
+        <v>8341000000000</v>
       </c>
       <c r="F4" s="38">
-        <v>-43560000000000</v>
+        <v>8387000000000</v>
       </c>
       <c r="G4" s="38">
-        <v>-43520000000000</v>
+        <v>8433000000000</v>
       </c>
       <c r="H4" s="38">
-        <v>-43470000000000</v>
+        <v>8479000000000</v>
       </c>
       <c r="I4" s="38">
-        <v>-43420000000000</v>
+        <v>8524000000000</v>
       </c>
       <c r="J4" s="38">
-        <v>-43380000000000</v>
+        <v>8570000000000</v>
       </c>
       <c r="K4" s="38">
-        <v>-43330000000000</v>
+        <v>8616000000000</v>
       </c>
       <c r="L4" s="38">
-        <v>-43290000000000</v>
+        <v>8662000000000</v>
       </c>
       <c r="M4" s="38">
-        <v>-43240000000000</v>
+        <v>8708000000000</v>
       </c>
       <c r="N4" s="38">
-        <v>-25880000000000</v>
+        <v>8753000000000</v>
       </c>
       <c r="O4" s="38">
-        <v>-22430000000000</v>
+        <v>8799000000000</v>
       </c>
       <c r="P4" s="38">
         <v>8843000000000</v>
@@ -3937,91 +3943,91 @@
         <v>2500000000000</v>
       </c>
       <c r="C5" s="38">
-        <v>2500000000000</v>
+        <v>2139060000000</v>
       </c>
       <c r="D5" s="38">
-        <v>2364000000000</v>
+        <v>2075850000000</v>
       </c>
       <c r="E5" s="38">
-        <v>2277000000000</v>
+        <v>1836610000000</v>
       </c>
       <c r="F5" s="38">
-        <v>2367000000000</v>
+        <v>1629390000000</v>
       </c>
       <c r="G5" s="38">
-        <v>2209000000000</v>
+        <v>1652750000000</v>
       </c>
       <c r="H5" s="38">
-        <v>1987000000000</v>
+        <v>1635480000000</v>
       </c>
       <c r="I5" s="38">
-        <v>1747000000000</v>
+        <v>1558240000000</v>
       </c>
       <c r="J5" s="38">
-        <v>1555000000000</v>
+        <v>1431880000000</v>
       </c>
       <c r="K5" s="38">
-        <v>1403000000000</v>
+        <v>1364990000000</v>
       </c>
       <c r="L5" s="38">
-        <v>1328000000000</v>
+        <v>1180580000000</v>
       </c>
       <c r="M5" s="38">
-        <v>1320000000000</v>
+        <v>1134400000000</v>
       </c>
       <c r="N5" s="38">
-        <v>1329000000000</v>
+        <v>1104800000000</v>
       </c>
       <c r="O5" s="38">
-        <v>1319000000000</v>
+        <v>1070130000000</v>
       </c>
       <c r="P5" s="38">
-        <v>1313000000000</v>
+        <v>1030450000000</v>
       </c>
       <c r="Q5" s="38">
-        <v>1326000000000</v>
+        <v>967014000000</v>
       </c>
       <c r="R5" s="38">
-        <v>1310000000000</v>
+        <v>955947000000</v>
       </c>
       <c r="S5" s="38">
-        <v>1282000000000</v>
+        <v>964862000000</v>
       </c>
       <c r="T5" s="38">
-        <v>1243000000000</v>
+        <v>941486000000</v>
       </c>
       <c r="U5" s="38">
-        <v>1212000000000</v>
+        <v>925945000000</v>
       </c>
       <c r="V5" s="38">
-        <v>1191000000000</v>
+        <v>912902000000</v>
       </c>
       <c r="W5" s="38">
-        <v>1194000000000</v>
+        <v>840875000000</v>
       </c>
       <c r="X5" s="38">
-        <v>1198000000000</v>
+        <v>785704000000</v>
       </c>
       <c r="Y5" s="38">
-        <v>1176000000000</v>
+        <v>726998000000</v>
       </c>
       <c r="Z5" s="38">
-        <v>1154000000000</v>
+        <v>673816000000</v>
       </c>
       <c r="AA5" s="38">
-        <v>1137000000000</v>
+        <v>658732000000</v>
       </c>
       <c r="AB5" s="38">
-        <v>1122000000000</v>
+        <v>658830000000</v>
       </c>
       <c r="AC5" s="38">
-        <v>1116000000000</v>
+        <v>653667000000</v>
       </c>
       <c r="AD5" s="38">
-        <v>1115000000000</v>
+        <v>640922000000</v>
       </c>
       <c r="AE5" s="38">
-        <v>1106000000000</v>
+        <v>640384000000</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -4029,94 +4035,94 @@
         <v>176</v>
       </c>
       <c r="B6" s="38">
-        <v>29600000000000</v>
+        <v>55700000000000</v>
       </c>
       <c r="C6" s="38">
-        <v>29600000000000</v>
+        <v>57746500000000</v>
       </c>
       <c r="D6" s="38">
-        <v>31370000000000</v>
+        <v>60747700000000</v>
       </c>
       <c r="E6" s="38">
-        <v>31390000000000</v>
+        <v>62491500000000</v>
       </c>
       <c r="F6" s="38">
-        <v>30600000000000</v>
+        <v>60870900000000</v>
       </c>
       <c r="G6" s="38">
-        <v>30740000000000</v>
+        <v>61160900000000</v>
       </c>
       <c r="H6" s="38">
-        <v>31130000000000</v>
+        <v>62418500000000</v>
       </c>
       <c r="I6" s="38">
-        <v>31090000000000</v>
+        <v>63711200000000</v>
       </c>
       <c r="J6" s="38">
-        <v>31340000000000</v>
+        <v>65546500000000</v>
       </c>
       <c r="K6" s="38">
-        <v>31550000000000</v>
+        <v>66256600000000</v>
       </c>
       <c r="L6" s="38">
-        <v>31860000000000</v>
+        <v>66961500000000</v>
       </c>
       <c r="M6" s="38">
-        <v>32230000000000</v>
+        <v>67026300000000</v>
       </c>
       <c r="N6" s="38">
-        <v>32660000000000</v>
+        <v>67206200000000</v>
       </c>
       <c r="O6" s="38">
-        <v>33160000000000</v>
+        <v>68197900000000</v>
       </c>
       <c r="P6" s="38">
-        <v>33580000000000</v>
+        <v>68771000000000</v>
       </c>
       <c r="Q6" s="38">
-        <v>33970000000000</v>
+        <v>68964700000000</v>
       </c>
       <c r="R6" s="38">
-        <v>34280000000000</v>
+        <v>68758800000000</v>
       </c>
       <c r="S6" s="38">
-        <v>34590000000000</v>
+        <v>68477900000000</v>
       </c>
       <c r="T6" s="38">
-        <v>34830000000000</v>
+        <v>68198700000000</v>
       </c>
       <c r="U6" s="38">
-        <v>35030000000000</v>
+        <v>68727800000000</v>
       </c>
       <c r="V6" s="38">
-        <v>35150000000000</v>
+        <v>69706200000000</v>
       </c>
       <c r="W6" s="38">
-        <v>35250000000000</v>
+        <v>70949400000000</v>
       </c>
       <c r="X6" s="38">
-        <v>35400000000000</v>
+        <v>72268200000000</v>
       </c>
       <c r="Y6" s="38">
-        <v>35500000000000</v>
+        <v>73471100000000</v>
       </c>
       <c r="Z6" s="38">
-        <v>35570000000000</v>
+        <v>74440000000000</v>
       </c>
       <c r="AA6" s="38">
-        <v>35700000000000</v>
+        <v>74829800000000</v>
       </c>
       <c r="AB6" s="38">
-        <v>35550000000000</v>
+        <v>75359100000000</v>
       </c>
       <c r="AC6" s="38">
-        <v>35730000000000</v>
+        <v>75783400000000</v>
       </c>
       <c r="AD6" s="38">
-        <v>35790000000000</v>
+        <v>76397500000000</v>
       </c>
       <c r="AE6" s="38">
-        <v>35860000000000</v>
+        <v>76895400000000</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -4231,76 +4237,76 @@
         <v>5015000000000</v>
       </c>
       <c r="F8" s="38">
-        <v>5065000000000</v>
+        <v>5064000000000</v>
       </c>
       <c r="G8" s="38">
-        <v>5112000000000</v>
+        <v>5111000000000</v>
       </c>
       <c r="H8" s="38">
         <v>5178000000000</v>
       </c>
       <c r="I8" s="38">
-        <v>5251000000000</v>
+        <v>5250000000000</v>
       </c>
       <c r="J8" s="38">
-        <v>5325000000000</v>
+        <v>5324000000000</v>
       </c>
       <c r="K8" s="38">
-        <v>5389000000000</v>
+        <v>5388000000000</v>
       </c>
       <c r="L8" s="38">
-        <v>5452000000000</v>
+        <v>5451000000000</v>
       </c>
       <c r="M8" s="38">
-        <v>5522000000000</v>
+        <v>5521000000000</v>
       </c>
       <c r="N8" s="38">
-        <v>5584000000000</v>
+        <v>5582000000000</v>
       </c>
       <c r="O8" s="38">
-        <v>5634000000000</v>
+        <v>5632000000000</v>
       </c>
       <c r="P8" s="38">
-        <v>5688000000000</v>
+        <v>5686000000000</v>
       </c>
       <c r="Q8" s="38">
-        <v>5747000000000</v>
+        <v>5745000000000</v>
       </c>
       <c r="R8" s="38">
-        <v>5809000000000</v>
+        <v>5808000000000</v>
       </c>
       <c r="S8" s="38">
-        <v>5869000000000</v>
+        <v>5870000000000</v>
       </c>
       <c r="T8" s="38">
-        <v>5931000000000</v>
+        <v>5932000000000</v>
       </c>
       <c r="U8" s="38">
-        <v>5994000000000</v>
+        <v>5996000000000</v>
       </c>
       <c r="V8" s="38">
-        <v>6058000000000</v>
+        <v>6060000000000</v>
       </c>
       <c r="W8" s="38">
-        <v>6120000000000</v>
+        <v>6123000000000</v>
       </c>
       <c r="X8" s="38">
-        <v>6185000000000</v>
+        <v>6187000000000</v>
       </c>
       <c r="Y8" s="38">
-        <v>6249000000000</v>
+        <v>6252000000000</v>
       </c>
       <c r="Z8" s="38">
-        <v>6311000000000</v>
+        <v>6314000000000</v>
       </c>
       <c r="AA8" s="38">
-        <v>6373000000000</v>
+        <v>6376000000000</v>
       </c>
       <c r="AB8" s="38">
-        <v>6433000000000</v>
+        <v>6435000000000</v>
       </c>
       <c r="AC8" s="38">
-        <v>6493000000000</v>
+        <v>6494000000000</v>
       </c>
       <c r="AD8" s="38">
         <v>6555000000000</v>
@@ -4602,91 +4608,91 @@
         <v>65300000000000</v>
       </c>
       <c r="C12" s="38">
-        <v>65300000000000</v>
+        <v>66660300000000</v>
       </c>
       <c r="D12" s="38">
-        <v>69390000000000</v>
+        <v>68381600000000</v>
       </c>
       <c r="E12" s="38">
-        <v>72260000000000</v>
+        <v>68965300000000</v>
       </c>
       <c r="F12" s="38">
-        <v>74320000000000</v>
+        <v>69882400000000</v>
       </c>
       <c r="G12" s="38">
-        <v>75440000000000</v>
+        <v>70317900000000</v>
       </c>
       <c r="H12" s="38">
-        <v>76500000000000</v>
+        <v>70410800000000</v>
       </c>
       <c r="I12" s="38">
-        <v>77110000000000</v>
+        <v>70437500000000</v>
       </c>
       <c r="J12" s="38">
-        <v>78070000000000</v>
+        <v>70237400000000</v>
       </c>
       <c r="K12" s="38">
-        <v>77960000000000</v>
+        <v>69733400000000</v>
       </c>
       <c r="L12" s="38">
-        <v>78090000000000</v>
+        <v>69254400000000</v>
       </c>
       <c r="M12" s="38">
-        <v>77670000000000</v>
+        <v>68600000000000</v>
       </c>
       <c r="N12" s="38">
-        <v>77870000000000</v>
+        <v>67163700000000</v>
       </c>
       <c r="O12" s="38">
-        <v>78050000000000</v>
+        <v>65794500000000</v>
       </c>
       <c r="P12" s="38">
-        <v>77780000000000</v>
+        <v>64790300000000</v>
       </c>
       <c r="Q12" s="38">
-        <v>77600000000000</v>
+        <v>63965600000000</v>
       </c>
       <c r="R12" s="38">
-        <v>77260000000000</v>
+        <v>62562600000000</v>
       </c>
       <c r="S12" s="38">
-        <v>77170000000000</v>
+        <v>61384900000000</v>
       </c>
       <c r="T12" s="38">
-        <v>76900000000000</v>
+        <v>60318200000000</v>
       </c>
       <c r="U12" s="38">
-        <v>76610000000000</v>
+        <v>59137900000000</v>
       </c>
       <c r="V12" s="38">
-        <v>76040000000000</v>
+        <v>58459300000000</v>
       </c>
       <c r="W12" s="38">
-        <v>75270000000000</v>
+        <v>58070900000000</v>
       </c>
       <c r="X12" s="38">
-        <v>75440000000000</v>
+        <v>57133700000000</v>
       </c>
       <c r="Y12" s="38">
-        <v>75850000000000</v>
+        <v>56603000000000</v>
       </c>
       <c r="Z12" s="38">
-        <v>76640000000000</v>
+        <v>55693200000000</v>
       </c>
       <c r="AA12" s="38">
-        <v>76830000000000</v>
+        <v>54918000000000</v>
       </c>
       <c r="AB12" s="38">
-        <v>77020000000000</v>
+        <v>53565200000000</v>
       </c>
       <c r="AC12" s="38">
-        <v>76450000000000</v>
+        <v>52582600000000</v>
       </c>
       <c r="AD12" s="38">
-        <v>76640000000000</v>
+        <v>52816200000000</v>
       </c>
       <c r="AE12" s="38">
-        <v>77440000000000</v>
+        <v>52604000000000</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -4703,85 +4709,85 @@
         <v>202000000000000</v>
       </c>
       <c r="E13" s="38">
-        <v>187200000000000</v>
+        <v>186700000000000</v>
       </c>
       <c r="F13" s="38">
-        <v>178500000000000</v>
+        <v>178100000000000</v>
       </c>
       <c r="G13" s="38">
         <v>185000000000000</v>
       </c>
       <c r="H13" s="38">
-        <v>191400000000000</v>
+        <v>192100000000000</v>
       </c>
       <c r="I13" s="38">
-        <v>196400000000000</v>
+        <v>196900000000000</v>
       </c>
       <c r="J13" s="38">
-        <v>200600000000000</v>
+        <v>201200000000000</v>
       </c>
       <c r="K13" s="38">
-        <v>203500000000000</v>
+        <v>203900000000000</v>
       </c>
       <c r="L13" s="38">
-        <v>206500000000000</v>
+        <v>206600000000000</v>
       </c>
       <c r="M13" s="38">
-        <v>210400000000000</v>
+        <v>210900000000000</v>
       </c>
       <c r="N13" s="38">
-        <v>214300000000000</v>
+        <v>214900000000000</v>
       </c>
       <c r="O13" s="38">
-        <v>217800000000000</v>
+        <v>218700000000000</v>
       </c>
       <c r="P13" s="38">
-        <v>221800000000000</v>
+        <v>223400000000000</v>
       </c>
       <c r="Q13" s="38">
-        <v>225500000000000</v>
+        <v>227600000000000</v>
       </c>
       <c r="R13" s="38">
-        <v>228400000000000</v>
+        <v>230200000000000</v>
       </c>
       <c r="S13" s="38">
-        <v>231800000000000</v>
+        <v>233400000000000</v>
       </c>
       <c r="T13" s="38">
-        <v>234400000000000</v>
+        <v>236400000000000</v>
       </c>
       <c r="U13" s="38">
-        <v>238000000000000</v>
+        <v>239200000000000</v>
       </c>
       <c r="V13" s="38">
-        <v>242600000000000</v>
+        <v>245000000000000</v>
       </c>
       <c r="W13" s="38">
-        <v>246400000000000</v>
+        <v>250300000000000</v>
       </c>
       <c r="X13" s="38">
-        <v>250000000000000</v>
+        <v>254200000000000</v>
       </c>
       <c r="Y13" s="38">
-        <v>253800000000000</v>
+        <v>258300000000000</v>
       </c>
       <c r="Z13" s="38">
-        <v>256800000000000</v>
+        <v>260300000000000</v>
       </c>
       <c r="AA13" s="38">
-        <v>259600000000000</v>
+        <v>262400000000000</v>
       </c>
       <c r="AB13" s="38">
-        <v>263700000000000</v>
+        <v>264700000000000</v>
       </c>
       <c r="AC13" s="38">
-        <v>268200000000000</v>
+        <v>268100000000000</v>
       </c>
       <c r="AD13" s="38">
-        <v>270700000000000</v>
+        <v>272200000000000</v>
       </c>
       <c r="AE13" s="38">
-        <v>274700000000000</v>
+        <v>275700000000000</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -4988,85 +4994,85 @@
         <v>74700000000000</v>
       </c>
       <c r="E16" s="38">
-        <v>71370000000000</v>
+        <v>71350000000000</v>
       </c>
       <c r="F16" s="38">
-        <v>70480000000000</v>
+        <v>70450000000000</v>
       </c>
       <c r="G16" s="38">
-        <v>71630000000000</v>
+        <v>71520000000000</v>
       </c>
       <c r="H16" s="38">
-        <v>72720000000000</v>
+        <v>72710000000000</v>
       </c>
       <c r="I16" s="38">
-        <v>73430000000000</v>
+        <v>73540000000000</v>
       </c>
       <c r="J16" s="38">
-        <v>74090000000000</v>
+        <v>74250000000000</v>
       </c>
       <c r="K16" s="38">
-        <v>74980000000000</v>
+        <v>75140000000000</v>
       </c>
       <c r="L16" s="38">
-        <v>75920000000000</v>
+        <v>75980000000000</v>
       </c>
       <c r="M16" s="38">
-        <v>76820000000000</v>
+        <v>76790000000000</v>
       </c>
       <c r="N16" s="38">
-        <v>77460000000000</v>
+        <v>77400000000000</v>
       </c>
       <c r="O16" s="38">
-        <v>77750000000000</v>
+        <v>77680000000000</v>
       </c>
       <c r="P16" s="38">
-        <v>78280000000000</v>
+        <v>78260000000000</v>
       </c>
       <c r="Q16" s="38">
-        <v>79460000000000</v>
+        <v>79530000000000</v>
       </c>
       <c r="R16" s="38">
-        <v>80410000000000</v>
+        <v>80540000000000</v>
       </c>
       <c r="S16" s="38">
-        <v>81220000000000</v>
+        <v>81330000000000</v>
       </c>
       <c r="T16" s="38">
-        <v>82080000000000</v>
+        <v>82200000000000</v>
       </c>
       <c r="U16" s="38">
-        <v>82740000000000</v>
+        <v>82850000000000</v>
       </c>
       <c r="V16" s="38">
-        <v>83640000000000</v>
+        <v>83720000000000</v>
       </c>
       <c r="W16" s="38">
-        <v>84630000000000</v>
+        <v>84800000000000</v>
       </c>
       <c r="X16" s="38">
-        <v>85420000000000</v>
+        <v>85650000000000</v>
       </c>
       <c r="Y16" s="38">
-        <v>85820000000000</v>
+        <v>86050000000000</v>
       </c>
       <c r="Z16" s="38">
-        <v>86790000000000</v>
+        <v>86960000000000</v>
       </c>
       <c r="AA16" s="38">
-        <v>87910000000000</v>
+        <v>87960000000000</v>
       </c>
       <c r="AB16" s="38">
-        <v>88810000000000</v>
+        <v>88770000000000</v>
       </c>
       <c r="AC16" s="38">
-        <v>89730000000000</v>
+        <v>89610000000000</v>
       </c>
       <c r="AD16" s="38">
-        <v>90420000000000</v>
+        <v>90310000000000</v>
       </c>
       <c r="AE16" s="38">
-        <v>91050000000000</v>
+        <v>91020000000000</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -5083,85 +5089,85 @@
         <v>40480000000000</v>
       </c>
       <c r="E17" s="38">
-        <v>39820000000000</v>
+        <v>39780000000000</v>
       </c>
       <c r="F17" s="38">
-        <v>39200000000000</v>
+        <v>39110000000000</v>
       </c>
       <c r="G17" s="38">
-        <v>40090000000000</v>
+        <v>39930000000000</v>
       </c>
       <c r="H17" s="38">
-        <v>42010000000000</v>
+        <v>42180000000000</v>
       </c>
       <c r="I17" s="38">
-        <v>43000000000000</v>
+        <v>43160000000000</v>
       </c>
       <c r="J17" s="38">
         <v>43240000000000</v>
       </c>
       <c r="K17" s="38">
-        <v>43450000000000</v>
+        <v>43360000000000</v>
       </c>
       <c r="L17" s="38">
+        <v>42900000000000</v>
+      </c>
+      <c r="M17" s="38">
+        <v>42800000000000</v>
+      </c>
+      <c r="N17" s="38">
+        <v>43300000000000</v>
+      </c>
+      <c r="O17" s="38">
         <v>43210000000000</v>
       </c>
-      <c r="M17" s="38">
-        <v>43120000000000</v>
-      </c>
-      <c r="N17" s="38">
-        <v>43560000000000</v>
-      </c>
-      <c r="O17" s="38">
-        <v>43410000000000</v>
-      </c>
       <c r="P17" s="38">
-        <v>43380000000000</v>
+        <v>43400000000000</v>
       </c>
       <c r="Q17" s="38">
-        <v>43510000000000</v>
+        <v>43690000000000</v>
       </c>
       <c r="R17" s="38">
-        <v>43630000000000</v>
+        <v>43740000000000</v>
       </c>
       <c r="S17" s="38">
-        <v>44130000000000</v>
+        <v>44170000000000</v>
       </c>
       <c r="T17" s="38">
-        <v>44440000000000</v>
+        <v>44560000000000</v>
       </c>
       <c r="U17" s="38">
-        <v>44530000000000</v>
+        <v>44510000000000</v>
       </c>
       <c r="V17" s="38">
-        <v>44720000000000</v>
+        <v>44810000000000</v>
       </c>
       <c r="W17" s="38">
-        <v>45060000000000</v>
+        <v>45500000000000</v>
       </c>
       <c r="X17" s="38">
-        <v>45410000000000</v>
+        <v>45850000000000</v>
       </c>
       <c r="Y17" s="38">
-        <v>45550000000000</v>
+        <v>45910000000000</v>
       </c>
       <c r="Z17" s="38">
-        <v>45560000000000</v>
+        <v>45680000000000</v>
       </c>
       <c r="AA17" s="38">
-        <v>45450000000000</v>
+        <v>45370000000000</v>
       </c>
       <c r="AB17" s="38">
-        <v>45520000000000</v>
+        <v>45240000000000</v>
       </c>
       <c r="AC17" s="38">
-        <v>45730000000000</v>
+        <v>45280000000000</v>
       </c>
       <c r="AD17" s="38">
-        <v>45760000000000</v>
+        <v>45580000000000</v>
       </c>
       <c r="AE17" s="38">
-        <v>45820000000000</v>
+        <v>45740000000000</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -5178,85 +5184,85 @@
         <v>4574000000000</v>
       </c>
       <c r="E18" s="38">
-        <v>4518000000000</v>
+        <v>4514000000000</v>
       </c>
       <c r="F18" s="38">
-        <v>4546000000000</v>
+        <v>4538000000000</v>
       </c>
       <c r="G18" s="38">
-        <v>4678000000000</v>
+        <v>4672000000000</v>
       </c>
       <c r="H18" s="38">
-        <v>4832000000000</v>
+        <v>4839000000000</v>
       </c>
       <c r="I18" s="38">
-        <v>4935000000000</v>
+        <v>4939000000000</v>
       </c>
       <c r="J18" s="38">
-        <v>5007000000000</v>
+        <v>5006000000000</v>
       </c>
       <c r="K18" s="38">
-        <v>5046000000000</v>
+        <v>5040000000000</v>
       </c>
       <c r="L18" s="38">
-        <v>5058000000000</v>
+        <v>5042000000000</v>
       </c>
       <c r="M18" s="38">
-        <v>5079000000000</v>
+        <v>5064000000000</v>
       </c>
       <c r="N18" s="38">
-        <v>5108000000000</v>
+        <v>5096000000000</v>
       </c>
       <c r="O18" s="38">
-        <v>5153000000000</v>
+        <v>5146000000000</v>
       </c>
       <c r="P18" s="38">
-        <v>5219000000000</v>
+        <v>5224000000000</v>
       </c>
       <c r="Q18" s="38">
-        <v>5288000000000</v>
+        <v>5301000000000</v>
       </c>
       <c r="R18" s="38">
-        <v>5337000000000</v>
+        <v>5348000000000</v>
       </c>
       <c r="S18" s="38">
-        <v>5397000000000</v>
+        <v>5405000000000</v>
       </c>
       <c r="T18" s="38">
-        <v>5457000000000</v>
+        <v>5468000000000</v>
       </c>
       <c r="U18" s="38">
-        <v>5522000000000</v>
+        <v>5527000000000</v>
       </c>
       <c r="V18" s="38">
-        <v>5563000000000</v>
+        <v>5575000000000</v>
       </c>
       <c r="W18" s="38">
-        <v>5633000000000</v>
+        <v>5661000000000</v>
       </c>
       <c r="X18" s="38">
-        <v>5723000000000</v>
+        <v>5755000000000</v>
       </c>
       <c r="Y18" s="38">
-        <v>5788000000000</v>
+        <v>5823000000000</v>
       </c>
       <c r="Z18" s="38">
-        <v>5830000000000</v>
+        <v>5855000000000</v>
       </c>
       <c r="AA18" s="38">
-        <v>5904000000000</v>
+        <v>5922000000000</v>
       </c>
       <c r="AB18" s="38">
-        <v>5994000000000</v>
+        <v>5998000000000</v>
       </c>
       <c r="AC18" s="38">
-        <v>6069000000000</v>
+        <v>6064000000000</v>
       </c>
       <c r="AD18" s="38">
-        <v>6095000000000</v>
+        <v>6097000000000</v>
       </c>
       <c r="AE18" s="38">
-        <v>6141000000000</v>
+        <v>6145000000000</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -5371,82 +5377,82 @@
         <v>338500000000</v>
       </c>
       <c r="F20" s="38">
-        <v>342200000000</v>
+        <v>342000000000</v>
       </c>
       <c r="G20" s="38">
-        <v>350400000000</v>
+        <v>349700000000</v>
       </c>
       <c r="H20" s="38">
-        <v>358800000000</v>
+        <v>359200000000</v>
       </c>
       <c r="I20" s="38">
-        <v>366500000000</v>
+        <v>367400000000</v>
       </c>
       <c r="J20" s="38">
-        <v>373300000000</v>
+        <v>373400000000</v>
       </c>
       <c r="K20" s="38">
-        <v>379000000000</v>
+        <v>378400000000</v>
       </c>
       <c r="L20" s="38">
+        <v>381900000000</v>
+      </c>
+      <c r="M20" s="38">
         <v>383800000000</v>
       </c>
-      <c r="M20" s="38">
-        <v>386600000000</v>
-      </c>
       <c r="N20" s="38">
-        <v>394600000000</v>
+        <v>391700000000</v>
       </c>
       <c r="O20" s="38">
-        <v>405700000000</v>
+        <v>402900000000</v>
       </c>
       <c r="P20" s="38">
-        <v>416400000000</v>
+        <v>414300000000</v>
       </c>
       <c r="Q20" s="38">
-        <v>427800000000</v>
+        <v>426600000000</v>
       </c>
       <c r="R20" s="38">
-        <v>439300000000</v>
+        <v>438400000000</v>
       </c>
       <c r="S20" s="38">
-        <v>451500000000</v>
+        <v>450700000000</v>
       </c>
       <c r="T20" s="38">
-        <v>464800000000</v>
+        <v>464300000000</v>
       </c>
       <c r="U20" s="38">
-        <v>477900000000</v>
+        <v>477500000000</v>
       </c>
       <c r="V20" s="38">
-        <v>491800000000</v>
+        <v>491400000000</v>
       </c>
       <c r="W20" s="38">
-        <v>506200000000</v>
+        <v>506700000000</v>
       </c>
       <c r="X20" s="38">
-        <v>519500000000</v>
+        <v>520100000000</v>
       </c>
       <c r="Y20" s="38">
-        <v>533700000000</v>
+        <v>533200000000</v>
       </c>
       <c r="Z20" s="38">
-        <v>547700000000</v>
+        <v>546000000000</v>
       </c>
       <c r="AA20" s="38">
-        <v>561200000000</v>
+        <v>558200000000</v>
       </c>
       <c r="AB20" s="38">
-        <v>575200000000</v>
+        <v>571700000000</v>
       </c>
       <c r="AC20" s="38">
-        <v>589900000000</v>
+        <v>586100000000</v>
       </c>
       <c r="AD20" s="38">
-        <v>604700000000</v>
+        <v>601400000000</v>
       </c>
       <c r="AE20" s="38">
-        <v>619200000000</v>
+        <v>617000000000</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -5929,94 +5935,94 @@
         <v>196</v>
       </c>
       <c r="B26" s="38">
-        <v>27000000000000</v>
+        <v>900000000000</v>
       </c>
       <c r="C26" s="38">
-        <v>27000000000000</v>
+        <v>961884000000</v>
       </c>
       <c r="D26" s="38">
-        <v>28570000000000</v>
+        <v>1004130000000</v>
       </c>
       <c r="E26" s="38">
-        <v>27530000000000</v>
+        <v>1017310000000</v>
       </c>
       <c r="F26" s="38">
-        <v>26470000000000</v>
+        <v>982744000000</v>
       </c>
       <c r="G26" s="38">
-        <v>26220000000000</v>
+        <v>970062000000</v>
       </c>
       <c r="H26" s="38">
-        <v>26140000000000</v>
+        <v>977908000000</v>
       </c>
       <c r="I26" s="38">
-        <v>25700000000000</v>
+        <v>997151000000</v>
       </c>
       <c r="J26" s="38">
-        <v>25550000000000</v>
+        <v>1024850000000</v>
       </c>
       <c r="K26" s="38">
-        <v>25430000000000</v>
+        <v>1022860000000</v>
       </c>
       <c r="L26" s="38">
-        <v>25200000000000</v>
+        <v>1015280000000</v>
       </c>
       <c r="M26" s="38">
-        <v>24960000000000</v>
+        <v>988107000000</v>
       </c>
       <c r="N26" s="38">
-        <v>24840000000000</v>
+        <v>965164000000</v>
       </c>
       <c r="O26" s="38">
-        <v>24770000000000</v>
+        <v>971825000000</v>
       </c>
       <c r="P26" s="38">
-        <v>24700000000000</v>
+        <v>973043000000</v>
       </c>
       <c r="Q26" s="38">
-        <v>24710000000000</v>
+        <v>958885000000</v>
       </c>
       <c r="R26" s="38">
-        <v>24800000000000</v>
+        <v>943956000000</v>
       </c>
       <c r="S26" s="38">
-        <v>24940000000000</v>
+        <v>928339000000</v>
       </c>
       <c r="T26" s="38">
-        <v>25140000000000</v>
+        <v>911603000000</v>
       </c>
       <c r="U26" s="38">
-        <v>25300000000000</v>
+        <v>928255000000</v>
       </c>
       <c r="V26" s="38">
-        <v>25500000000000</v>
+        <v>952518000000</v>
       </c>
       <c r="W26" s="38">
-        <v>25640000000000</v>
+        <v>987270000000</v>
       </c>
       <c r="X26" s="38">
-        <v>25800000000000</v>
+        <v>1026440000000</v>
       </c>
       <c r="Y26" s="38">
-        <v>25950000000000</v>
+        <v>1063560000000</v>
       </c>
       <c r="Z26" s="38">
-        <v>26060000000000</v>
+        <v>1091330000000</v>
       </c>
       <c r="AA26" s="38">
-        <v>26190000000000</v>
+        <v>1099400000000</v>
       </c>
       <c r="AB26" s="38">
-        <v>26170000000000</v>
+        <v>1122290000000</v>
       </c>
       <c r="AC26" s="38">
-        <v>26280000000000</v>
+        <v>1128770000000</v>
       </c>
       <c r="AD26" s="38">
-        <v>26460000000000</v>
+        <v>1148450000000</v>
       </c>
       <c r="AE26" s="38">
-        <v>26600000000000</v>
+        <v>1163020000000</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -8909,91 +8915,91 @@
         <v>12013600000</v>
       </c>
       <c r="C58" s="38">
-        <v>12307100000</v>
+        <v>12759300000</v>
       </c>
       <c r="D58" s="38">
-        <v>11152100000</v>
+        <v>11476600000</v>
       </c>
       <c r="E58" s="38">
-        <v>11227900000</v>
+        <v>11830100000</v>
       </c>
       <c r="F58" s="38">
-        <v>11294100000</v>
+        <v>11923100000</v>
       </c>
       <c r="G58" s="38">
-        <v>11559200000</v>
+        <v>12072600000</v>
       </c>
       <c r="H58" s="38">
-        <v>11625500000</v>
+        <v>12082000000</v>
       </c>
       <c r="I58" s="38">
-        <v>11701200000</v>
+        <v>12223300000</v>
       </c>
       <c r="J58" s="38">
-        <v>11682300000</v>
+        <v>12293000000</v>
       </c>
       <c r="K58" s="38">
-        <v>11748500000</v>
+        <v>12320600000</v>
       </c>
       <c r="L58" s="38">
-        <v>11729600000</v>
+        <v>12255100000</v>
       </c>
       <c r="M58" s="38">
-        <v>11805300000</v>
+        <v>12239300000</v>
       </c>
       <c r="N58" s="38">
-        <v>11900000000</v>
+        <v>12243600000</v>
       </c>
       <c r="O58" s="38">
-        <v>11900000000</v>
+        <v>12264700000</v>
       </c>
       <c r="P58" s="38">
-        <v>11814800000</v>
+        <v>12143400000</v>
       </c>
       <c r="Q58" s="38">
-        <v>11814800000</v>
+        <v>12049800000</v>
       </c>
       <c r="R58" s="38">
-        <v>11814800000</v>
+        <v>11985400000</v>
       </c>
       <c r="S58" s="38">
-        <v>11729600000</v>
+        <v>11796400000</v>
       </c>
       <c r="T58" s="38">
-        <v>11729600000</v>
+        <v>11654200000</v>
       </c>
       <c r="U58" s="38">
-        <v>11644400000</v>
+        <v>11655900000</v>
       </c>
       <c r="V58" s="38">
-        <v>11549700000</v>
+        <v>11649400000</v>
       </c>
       <c r="W58" s="38">
-        <v>11464500000</v>
+        <v>11705300000</v>
       </c>
       <c r="X58" s="38">
-        <v>11464500000</v>
+        <v>11868200000</v>
       </c>
       <c r="Y58" s="38">
-        <v>11379300000</v>
+        <v>11930000000</v>
       </c>
       <c r="Z58" s="38">
-        <v>11379300000</v>
+        <v>12035800000</v>
       </c>
       <c r="AA58" s="38">
-        <v>11284700000</v>
+        <v>11974300000</v>
       </c>
       <c r="AB58" s="38">
-        <v>11199500000</v>
+        <v>11981600000</v>
       </c>
       <c r="AC58" s="38">
-        <v>11104800000</v>
+        <v>11899900000</v>
       </c>
       <c r="AD58" s="38">
-        <v>11114300000</v>
+        <v>11949100000</v>
       </c>
       <c r="AE58" s="38">
-        <v>11114300000</v>
+        <v>11981400000</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
@@ -9479,91 +9485,91 @@
         <v>2219060000000</v>
       </c>
       <c r="C64" s="38">
-        <v>2272080000000</v>
+        <v>2319410000000</v>
       </c>
       <c r="D64" s="38">
-        <v>2267350000000</v>
+        <v>2234400000000</v>
       </c>
       <c r="E64" s="38">
-        <v>16340000000</v>
+        <v>15638300000</v>
       </c>
       <c r="F64" s="38">
-        <v>16311600000</v>
+        <v>15247400000</v>
       </c>
       <c r="G64" s="38">
-        <v>16283200000</v>
+        <v>14981100000</v>
       </c>
       <c r="H64" s="38">
-        <v>16245400000</v>
+        <v>14717600000</v>
       </c>
       <c r="I64" s="38">
-        <v>16217000000</v>
+        <v>14568100000</v>
       </c>
       <c r="J64" s="38">
-        <v>16188600000</v>
+        <v>14291600000</v>
       </c>
       <c r="K64" s="38">
-        <v>16160200000</v>
+        <v>14180200000</v>
       </c>
       <c r="L64" s="38">
-        <v>16131800000</v>
+        <v>14003500000</v>
       </c>
       <c r="M64" s="38">
-        <v>16103400000</v>
+        <v>13853700000</v>
       </c>
       <c r="N64" s="38">
-        <v>16103400000</v>
+        <v>13608000000</v>
       </c>
       <c r="O64" s="38">
-        <v>16112800000</v>
+        <v>13372000000</v>
       </c>
       <c r="P64" s="38">
-        <v>16112800000</v>
+        <v>13219600000</v>
       </c>
       <c r="Q64" s="38">
-        <v>16122300000</v>
+        <v>13057400000</v>
       </c>
       <c r="R64" s="38">
-        <v>16122300000</v>
+        <v>12872000000</v>
       </c>
       <c r="S64" s="38">
-        <v>16131800000</v>
+        <v>12664600000</v>
       </c>
       <c r="T64" s="38">
-        <v>16131800000</v>
+        <v>12497300000</v>
       </c>
       <c r="U64" s="38">
-        <v>16141200000</v>
+        <v>12342400000</v>
       </c>
       <c r="V64" s="38">
-        <v>16141200000</v>
+        <v>12216500000</v>
       </c>
       <c r="W64" s="38">
-        <v>16141200000</v>
+        <v>12165300000</v>
       </c>
       <c r="X64" s="38">
-        <v>16150700000</v>
+        <v>11972900000</v>
       </c>
       <c r="Y64" s="38">
-        <v>16150700000</v>
+        <v>11750400000</v>
       </c>
       <c r="Z64" s="38">
-        <v>27586800000</v>
+        <v>19654600000</v>
       </c>
       <c r="AA64" s="38">
-        <v>650004000000</v>
+        <v>456950000000</v>
       </c>
       <c r="AB64" s="38">
-        <v>1379340000000</v>
+        <v>956066000000</v>
       </c>
       <c r="AC64" s="38">
-        <v>2481300000000</v>
+        <v>1716080000000</v>
       </c>
       <c r="AD64" s="38">
-        <v>2845780000000</v>
+        <v>1953510000000</v>
       </c>
       <c r="AE64" s="38">
-        <v>2846730000000</v>
+        <v>1929760000000</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -11189,91 +11195,91 @@
         <v>557130000000</v>
       </c>
       <c r="C82" s="38">
-        <v>560844000000</v>
+        <v>479871000000</v>
       </c>
       <c r="D82" s="38">
-        <v>504494000000</v>
+        <v>443001000000</v>
       </c>
       <c r="E82" s="38">
-        <v>541212000000</v>
+        <v>436537000000</v>
       </c>
       <c r="F82" s="38">
-        <v>504919000000</v>
+        <v>348311000000</v>
       </c>
       <c r="G82" s="38">
-        <v>459340000000</v>
+        <v>344141000000</v>
       </c>
       <c r="H82" s="38">
-        <v>409676000000</v>
+        <v>318600000000</v>
       </c>
       <c r="I82" s="38">
-        <v>365690000000</v>
+        <v>281677000000</v>
       </c>
       <c r="J82" s="38">
-        <v>324674000000</v>
+        <v>236950000000</v>
       </c>
       <c r="K82" s="38">
-        <v>307270000000</v>
+        <v>215530000000</v>
       </c>
       <c r="L82" s="38">
-        <v>304671000000</v>
+        <v>191527000000</v>
       </c>
       <c r="M82" s="38">
-        <v>305785000000</v>
+        <v>187200000000</v>
       </c>
       <c r="N82" s="38">
-        <v>304246000000</v>
+        <v>181497000000</v>
       </c>
       <c r="O82" s="38">
-        <v>301434000000</v>
+        <v>176174000000</v>
       </c>
       <c r="P82" s="38">
-        <v>303769000000</v>
+        <v>173513000000</v>
       </c>
       <c r="Q82" s="38">
-        <v>300213000000</v>
+        <v>162639000000</v>
       </c>
       <c r="R82" s="38">
-        <v>293369000000</v>
+        <v>158982000000</v>
       </c>
       <c r="S82" s="38">
-        <v>288806000000</v>
+        <v>158238000000</v>
       </c>
       <c r="T82" s="38">
-        <v>282120000000</v>
+        <v>157633000000</v>
       </c>
       <c r="U82" s="38">
-        <v>278034000000</v>
+        <v>156596000000</v>
       </c>
       <c r="V82" s="38">
-        <v>278300000000</v>
+        <v>158887000000</v>
       </c>
       <c r="W82" s="38">
-        <v>279043000000</v>
+        <v>149167000000</v>
       </c>
       <c r="X82" s="38">
-        <v>275434000000</v>
+        <v>138016000000</v>
       </c>
       <c r="Y82" s="38">
-        <v>271243000000</v>
+        <v>127303000000</v>
       </c>
       <c r="Z82" s="38">
-        <v>268271000000</v>
+        <v>117993000000</v>
       </c>
       <c r="AA82" s="38">
-        <v>265406000000</v>
+        <v>113233000000</v>
       </c>
       <c r="AB82" s="38">
-        <v>263602000000</v>
+        <v>113287000000</v>
       </c>
       <c r="AC82" s="38">
-        <v>261745000000</v>
+        <v>112933000000</v>
       </c>
       <c r="AD82" s="38">
-        <v>259623000000</v>
+        <v>113119000000</v>
       </c>
       <c r="AE82" s="38">
-        <v>255006000000</v>
+        <v>111774000000</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -11284,91 +11290,91 @@
         <v>119491000000000</v>
       </c>
       <c r="C83" s="38">
-        <v>128352000000000</v>
+        <v>133068000000000</v>
       </c>
       <c r="D83" s="38">
-        <v>129042000000000</v>
+        <v>132797000000000</v>
       </c>
       <c r="E83" s="38">
-        <v>128140000000000</v>
+        <v>135013000000000</v>
       </c>
       <c r="F83" s="38">
-        <v>128405000000000</v>
+        <v>135556000000000</v>
       </c>
       <c r="G83" s="38">
-        <v>129838000000000</v>
+        <v>135605000000000</v>
       </c>
       <c r="H83" s="38">
-        <v>129626000000000</v>
+        <v>134716000000000</v>
       </c>
       <c r="I83" s="38">
-        <v>131058000000000</v>
+        <v>136906000000000</v>
       </c>
       <c r="J83" s="38">
-        <v>131058000000000</v>
+        <v>137910000000000</v>
       </c>
       <c r="K83" s="38">
-        <v>131430000000000</v>
+        <v>137830000000000</v>
       </c>
       <c r="L83" s="38">
-        <v>131801000000000</v>
+        <v>137706000000000</v>
       </c>
       <c r="M83" s="38">
-        <v>133181000000000</v>
+        <v>138076000000000</v>
       </c>
       <c r="N83" s="38">
-        <v>134189000000000</v>
+        <v>138064000000000</v>
       </c>
       <c r="O83" s="38">
-        <v>135197000000000</v>
+        <v>139340000000000</v>
       </c>
       <c r="P83" s="38">
-        <v>135834000000000</v>
+        <v>139612000000000</v>
       </c>
       <c r="Q83" s="38">
-        <v>137372000000000</v>
+        <v>140104000000000</v>
       </c>
       <c r="R83" s="38">
-        <v>138434000000000</v>
+        <v>140433000000000</v>
       </c>
       <c r="S83" s="38">
-        <v>138964000000000</v>
+        <v>139756000000000</v>
       </c>
       <c r="T83" s="38">
-        <v>140078000000000</v>
+        <v>139178000000000</v>
       </c>
       <c r="U83" s="38">
-        <v>140025000000000</v>
+        <v>140164000000000</v>
       </c>
       <c r="V83" s="38">
-        <v>140185000000000</v>
+        <v>141394000000000</v>
       </c>
       <c r="W83" s="38">
-        <v>141140000000000</v>
+        <v>144104000000000</v>
       </c>
       <c r="X83" s="38">
-        <v>142148000000000</v>
+        <v>147153000000000</v>
       </c>
       <c r="Y83" s="38">
-        <v>143527000000000</v>
+        <v>150472000000000</v>
       </c>
       <c r="Z83" s="38">
-        <v>144005000000000</v>
+        <v>152312000000000</v>
       </c>
       <c r="AA83" s="38">
-        <v>144535000000000</v>
+        <v>153369000000000</v>
       </c>
       <c r="AB83" s="38">
-        <v>144642000000000</v>
+        <v>154743000000000</v>
       </c>
       <c r="AC83" s="38">
-        <v>146233000000000</v>
+        <v>156703000000000</v>
       </c>
       <c r="AD83" s="38">
-        <v>147082000000000</v>
+        <v>158130000000000</v>
       </c>
       <c r="AE83" s="38">
-        <v>147560000000000</v>
+        <v>159073000000000</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -11854,91 +11860,91 @@
         <v>47520500000000</v>
       </c>
       <c r="C89" s="38">
-        <v>47509900000000</v>
+        <v>48499600000000</v>
       </c>
       <c r="D89" s="38">
-        <v>46406300000000</v>
+        <v>45731900000000</v>
       </c>
       <c r="E89" s="38">
-        <v>36383200000000</v>
+        <v>34820700000000</v>
       </c>
       <c r="F89" s="38">
-        <v>36240000000000</v>
+        <v>33875500000000</v>
       </c>
       <c r="G89" s="38">
-        <v>36712200000000</v>
+        <v>33776400000000</v>
       </c>
       <c r="H89" s="38">
-        <v>36160400000000</v>
+        <v>32759700000000</v>
       </c>
       <c r="I89" s="38">
-        <v>37142000000000</v>
+        <v>33365500000000</v>
       </c>
       <c r="J89" s="38">
-        <v>38553400000000</v>
+        <v>34035800000000</v>
       </c>
       <c r="K89" s="38">
-        <v>39836400000000</v>
+        <v>34955700000000</v>
       </c>
       <c r="L89" s="38">
-        <v>39428000000000</v>
+        <v>34226200000000</v>
       </c>
       <c r="M89" s="38">
-        <v>38967400000000</v>
+        <v>33523500000000</v>
       </c>
       <c r="N89" s="38">
-        <v>38971800000000</v>
+        <v>32932600000000</v>
       </c>
       <c r="O89" s="38">
-        <v>39142500000000</v>
+        <v>32484400000000</v>
       </c>
       <c r="P89" s="38">
-        <v>38965900000000</v>
+        <v>31969300000000</v>
       </c>
       <c r="Q89" s="38">
-        <v>39157900000000</v>
+        <v>31713800000000</v>
       </c>
       <c r="R89" s="38">
-        <v>38882400000000</v>
+        <v>31043700000000</v>
       </c>
       <c r="S89" s="38">
-        <v>39333400000000</v>
+        <v>30879600000000</v>
       </c>
       <c r="T89" s="38">
-        <v>39275000000000</v>
+        <v>30426400000000</v>
       </c>
       <c r="U89" s="38">
-        <v>39253800000000</v>
+        <v>30015300000000</v>
       </c>
       <c r="V89" s="38">
-        <v>39604000000000</v>
+        <v>29974400000000</v>
       </c>
       <c r="W89" s="38">
-        <v>39413000000000</v>
+        <v>29704700000000</v>
       </c>
       <c r="X89" s="38">
-        <v>39402400000000</v>
+        <v>29209900000000</v>
       </c>
       <c r="Y89" s="38">
-        <v>39471400000000</v>
+        <v>28717200000000</v>
       </c>
       <c r="Z89" s="38">
-        <v>39938300000000</v>
+        <v>28454500000000</v>
       </c>
       <c r="AA89" s="38">
-        <v>37301200000000</v>
+        <v>26222600000000</v>
       </c>
       <c r="AB89" s="38">
-        <v>37624900000000</v>
+        <v>26079000000000</v>
       </c>
       <c r="AC89" s="38">
-        <v>39381200000000</v>
+        <v>27236100000000</v>
       </c>
       <c r="AD89" s="38">
-        <v>40017900000000</v>
+        <v>27470700000000</v>
       </c>
       <c r="AE89" s="38">
-        <v>40659900000000</v>
+        <v>27562800000000</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -12326,94 +12332,94 @@
         <v>262</v>
       </c>
       <c r="B94" s="38">
-        <v>0</v>
+        <v>16582500000000</v>
       </c>
       <c r="C94" s="38">
-        <v>0</v>
+        <v>14218400000000</v>
       </c>
       <c r="D94" s="38">
-        <v>0</v>
+        <v>14725000000000</v>
       </c>
       <c r="E94" s="38">
-        <v>0</v>
+        <v>15535500000000</v>
       </c>
       <c r="F94" s="38">
-        <v>0</v>
+        <v>16524600000000</v>
       </c>
       <c r="G94" s="38">
-        <v>0</v>
+        <v>17764600000000</v>
       </c>
       <c r="H94" s="38">
-        <v>0</v>
+        <v>18512400000000</v>
       </c>
       <c r="I94" s="38">
-        <v>0</v>
+        <v>18830800000000</v>
       </c>
       <c r="J94" s="38">
-        <v>0</v>
+        <v>19067200000000</v>
       </c>
       <c r="K94" s="38">
-        <v>0</v>
+        <v>19125100000000</v>
       </c>
       <c r="L94" s="38">
-        <v>0</v>
+        <v>19294000000000</v>
       </c>
       <c r="M94" s="38">
-        <v>1001080</v>
+        <v>19680000000000</v>
       </c>
       <c r="N94" s="38">
-        <v>2002150</v>
+        <v>19376000000000</v>
       </c>
       <c r="O94" s="38">
-        <v>3003230</v>
+        <v>19154100000000</v>
       </c>
       <c r="P94" s="38">
-        <v>4004300</v>
+        <v>19014200000000</v>
       </c>
       <c r="Q94" s="38">
-        <v>5005380</v>
+        <v>18917700000000</v>
       </c>
       <c r="R94" s="38">
-        <v>5005380</v>
+        <v>18951400000000</v>
       </c>
       <c r="S94" s="38">
-        <v>5005380</v>
+        <v>18879100000000</v>
       </c>
       <c r="T94" s="38">
-        <v>5005380</v>
+        <v>18797100000000</v>
       </c>
       <c r="U94" s="38">
-        <v>5005380</v>
+        <v>18705400000000</v>
       </c>
       <c r="V94" s="38">
-        <v>5005380</v>
+        <v>18686100000000</v>
       </c>
       <c r="W94" s="38">
-        <v>5005380</v>
+        <v>18705400000000</v>
       </c>
       <c r="X94" s="38">
-        <v>5005380</v>
+        <v>18657100000000</v>
       </c>
       <c r="Y94" s="38">
-        <v>5005380</v>
+        <v>18555800000000</v>
       </c>
       <c r="Z94" s="38">
-        <v>5005380</v>
+        <v>18406200000000</v>
       </c>
       <c r="AA94" s="38">
-        <v>5005380</v>
+        <v>18314600000000</v>
       </c>
       <c r="AB94" s="38">
-        <v>5005380</v>
+        <v>18295300000000</v>
       </c>
       <c r="AC94" s="38">
-        <v>5005380</v>
+        <v>18208400000000</v>
       </c>
       <c r="AD94" s="38">
-        <v>5005380</v>
+        <v>18140900000000</v>
       </c>
       <c r="AE94" s="38">
-        <v>5005380</v>
+        <v>18213300000000</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -13184,91 +13190,91 @@
         <v>55659900000000</v>
       </c>
       <c r="C103" s="38">
-        <v>48056400000000</v>
+        <v>51360800000000</v>
       </c>
       <c r="D103" s="38">
-        <v>43456100000000</v>
+        <v>45821500000000</v>
       </c>
       <c r="E103" s="38">
-        <v>40224800000000</v>
+        <v>44460200000000</v>
       </c>
       <c r="F103" s="38">
-        <v>38346500000000</v>
+        <v>42707100000000</v>
       </c>
       <c r="G103" s="38">
-        <v>36648500000000</v>
+        <v>40035300000000</v>
       </c>
       <c r="H103" s="38">
-        <v>34377600000000</v>
+        <v>37237600000000</v>
       </c>
       <c r="I103" s="38">
-        <v>32212700000000</v>
+        <v>35321000000000</v>
       </c>
       <c r="J103" s="38">
-        <v>32053500000000</v>
+        <v>35737800000000</v>
       </c>
       <c r="K103" s="38">
-        <v>31905000000000</v>
+        <v>35349200000000</v>
       </c>
       <c r="L103" s="38">
-        <v>31926200000000</v>
+        <v>35144800000000</v>
       </c>
       <c r="M103" s="38">
-        <v>32175600000000</v>
+        <v>34876000000000</v>
       </c>
       <c r="N103" s="38">
-        <v>32626600000000</v>
+        <v>34807100000000</v>
       </c>
       <c r="O103" s="38">
-        <v>32870700000000</v>
+        <v>35231600000000</v>
       </c>
       <c r="P103" s="38">
-        <v>33019200000000</v>
+        <v>35194600000000</v>
       </c>
       <c r="Q103" s="38">
-        <v>33056400000000</v>
+        <v>34622900000000</v>
       </c>
       <c r="R103" s="38">
-        <v>33013900000000</v>
+        <v>34152000000000</v>
       </c>
       <c r="S103" s="38">
-        <v>33279200000000</v>
+        <v>33731200000000</v>
       </c>
       <c r="T103" s="38">
-        <v>33226200000000</v>
+        <v>32720200000000</v>
       </c>
       <c r="U103" s="38">
-        <v>33714300000000</v>
+        <v>33792800000000</v>
       </c>
       <c r="V103" s="38">
-        <v>34064500000000</v>
+        <v>34751100000000</v>
       </c>
       <c r="W103" s="38">
-        <v>34377600000000</v>
+        <v>36052600000000</v>
       </c>
       <c r="X103" s="38">
-        <v>34531400000000</v>
+        <v>37345200000000</v>
       </c>
       <c r="Y103" s="38">
-        <v>34754300000000</v>
+        <v>38640400000000</v>
       </c>
       <c r="Z103" s="38">
-        <v>34982500000000</v>
+        <v>39644300000000</v>
       </c>
       <c r="AA103" s="38">
-        <v>35269000000000</v>
+        <v>40218700000000</v>
       </c>
       <c r="AB103" s="38">
-        <v>35677500000000</v>
+        <v>41407000000000</v>
       </c>
       <c r="AC103" s="38">
-        <v>36070200000000</v>
+        <v>41956800000000</v>
       </c>
       <c r="AD103" s="38">
-        <v>36202800000000</v>
+        <v>42386800000000</v>
       </c>
       <c r="AE103" s="38">
-        <v>36468100000000</v>
+        <v>42945700000000</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -15939,91 +15945,91 @@
         <v>2726200000000</v>
       </c>
       <c r="C132" s="38">
-        <v>2737460000000</v>
+        <v>2342230000000</v>
       </c>
       <c r="D132" s="38">
-        <v>2534850000000</v>
+        <v>2225870000000</v>
       </c>
       <c r="E132" s="38">
-        <v>2701440000000</v>
+        <v>2178960000000</v>
       </c>
       <c r="F132" s="38">
-        <v>2494330000000</v>
+        <v>1720670000000</v>
       </c>
       <c r="G132" s="38">
-        <v>2263210000000</v>
+        <v>1695610000000</v>
       </c>
       <c r="H132" s="38">
-        <v>2015570000000</v>
+        <v>1567490000000</v>
       </c>
       <c r="I132" s="38">
-        <v>1796460000000</v>
+        <v>1383740000000</v>
       </c>
       <c r="J132" s="38">
-        <v>1591600000000</v>
+        <v>1161560000000</v>
       </c>
       <c r="K132" s="38">
-        <v>1506050000000</v>
+        <v>1056400000000</v>
       </c>
       <c r="L132" s="38">
-        <v>1494050000000</v>
+        <v>939214000000</v>
       </c>
       <c r="M132" s="38">
-        <v>1498550000000</v>
+        <v>917407000000</v>
       </c>
       <c r="N132" s="38">
-        <v>1490290000000</v>
+        <v>889030000000</v>
       </c>
       <c r="O132" s="38">
-        <v>1477540000000</v>
+        <v>863551000000</v>
       </c>
       <c r="P132" s="38">
-        <v>1490290000000</v>
+        <v>851257000000</v>
       </c>
       <c r="Q132" s="38">
-        <v>1474540000000</v>
+        <v>798822000000</v>
       </c>
       <c r="R132" s="38">
-        <v>1441520000000</v>
+        <v>781188000000</v>
       </c>
       <c r="S132" s="38">
-        <v>1422760000000</v>
+        <v>779538000000</v>
       </c>
       <c r="T132" s="38">
-        <v>1391990000000</v>
+        <v>777769000000</v>
       </c>
       <c r="U132" s="38">
-        <v>1375480000000</v>
+        <v>774709000000</v>
       </c>
       <c r="V132" s="38">
-        <v>1379990000000</v>
+        <v>787862000000</v>
       </c>
       <c r="W132" s="38">
-        <v>1385990000000</v>
+        <v>740905000000</v>
       </c>
       <c r="X132" s="38">
-        <v>1370980000000</v>
+        <v>686980000000</v>
       </c>
       <c r="Y132" s="38">
-        <v>1352970000000</v>
+        <v>634995000000</v>
       </c>
       <c r="Z132" s="38">
-        <v>1340960000000</v>
+        <v>589793000000</v>
       </c>
       <c r="AA132" s="38">
-        <v>1329710000000</v>
+        <v>567307000000</v>
       </c>
       <c r="AB132" s="38">
-        <v>1325210000000</v>
+        <v>569528000000</v>
       </c>
       <c r="AC132" s="38">
-        <v>1322960000000</v>
+        <v>570806000000</v>
       </c>
       <c r="AD132" s="38">
-        <v>1317700000000</v>
+        <v>574129000000</v>
       </c>
       <c r="AE132" s="38">
-        <v>1301190000000</v>
+        <v>570338000000</v>
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
@@ -16034,91 +16040,91 @@
         <v>10100400000000</v>
       </c>
       <c r="C133" s="38">
-        <v>10145400000000</v>
+        <v>10518200000000</v>
       </c>
       <c r="D133" s="38">
-        <v>9597620000000</v>
+        <v>9876890000000</v>
       </c>
       <c r="E133" s="38">
-        <v>9402510000000</v>
+        <v>9906870000000</v>
       </c>
       <c r="F133" s="38">
-        <v>9327470000000</v>
+        <v>9846900000000</v>
       </c>
       <c r="G133" s="38">
-        <v>9327470000000</v>
+        <v>9741750000000</v>
       </c>
       <c r="H133" s="38">
-        <v>9252430000000</v>
+        <v>9615760000000</v>
       </c>
       <c r="I133" s="38">
-        <v>9229920000000</v>
+        <v>9641740000000</v>
       </c>
       <c r="J133" s="38">
-        <v>9147380000000</v>
+        <v>9625600000000</v>
       </c>
       <c r="K133" s="38">
-        <v>9124860000000</v>
+        <v>9569200000000</v>
       </c>
       <c r="L133" s="38">
-        <v>9079840000000</v>
+        <v>9486650000000</v>
       </c>
       <c r="M133" s="38">
-        <v>9079840000000</v>
+        <v>9413580000000</v>
       </c>
       <c r="N133" s="38">
-        <v>9109860000000</v>
+        <v>9372910000000</v>
       </c>
       <c r="O133" s="38">
-        <v>9109860000000</v>
+        <v>9389040000000</v>
       </c>
       <c r="P133" s="38">
-        <v>9109860000000</v>
+        <v>9363230000000</v>
       </c>
       <c r="Q133" s="38">
-        <v>9117360000000</v>
+        <v>9298670000000</v>
       </c>
       <c r="R133" s="38">
-        <v>9124860000000</v>
+        <v>9256640000000</v>
       </c>
       <c r="S133" s="38">
-        <v>9094850000000</v>
+        <v>9146670000000</v>
       </c>
       <c r="T133" s="38">
-        <v>9102350000000</v>
+        <v>9043840000000</v>
       </c>
       <c r="U133" s="38">
-        <v>9064830000000</v>
+        <v>9073780000000</v>
       </c>
       <c r="V133" s="38">
-        <v>9034820000000</v>
+        <v>9112750000000</v>
       </c>
       <c r="W133" s="38">
-        <v>9027310000000</v>
+        <v>9216900000000</v>
       </c>
       <c r="X133" s="38">
-        <v>9042320000000</v>
+        <v>9360720000000</v>
       </c>
       <c r="Y133" s="38">
-        <v>9064830000000</v>
+        <v>9503470000000</v>
       </c>
       <c r="Z133" s="38">
-        <v>9034820000000</v>
+        <v>9556010000000</v>
       </c>
       <c r="AA133" s="38">
-        <v>9042320000000</v>
+        <v>9594940000000</v>
       </c>
       <c r="AB133" s="38">
-        <v>9004800000000</v>
+        <v>9633640000000</v>
       </c>
       <c r="AC133" s="38">
-        <v>9012300000000</v>
+        <v>9657560000000</v>
       </c>
       <c r="AD133" s="38">
-        <v>9034820000000</v>
+        <v>9713440000000</v>
       </c>
       <c r="AE133" s="38">
-        <v>9049820000000</v>
+        <v>9755920000000</v>
       </c>
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
@@ -16702,88 +16708,88 @@
         <v>66583000000</v>
       </c>
       <c r="D140" s="38">
-        <v>18489900000000</v>
+        <v>69727200000</v>
       </c>
       <c r="E140" s="38">
-        <v>14632800000000</v>
+        <v>69809700000</v>
       </c>
       <c r="F140" s="38">
-        <v>14242600000000</v>
+        <v>72361100000</v>
       </c>
       <c r="G140" s="38">
-        <v>12441600000000</v>
+        <v>74312100000</v>
       </c>
       <c r="H140" s="38">
-        <v>10993400000000</v>
+        <v>76690900000</v>
       </c>
       <c r="I140" s="38">
-        <v>10047900000000</v>
+        <v>79017100000</v>
       </c>
       <c r="J140" s="38">
-        <v>10760700000000</v>
+        <v>78191700000</v>
       </c>
       <c r="K140" s="38">
-        <v>11623700000000</v>
+        <v>77591400000</v>
       </c>
       <c r="L140" s="38">
-        <v>12681800000000</v>
+        <v>76465800000</v>
       </c>
       <c r="M140" s="38">
-        <v>13769800000000</v>
+        <v>75790400000</v>
       </c>
       <c r="N140" s="38">
-        <v>14993000000000</v>
+        <v>75265100000</v>
       </c>
       <c r="O140" s="38">
-        <v>15983500000000</v>
+        <v>75040000000</v>
       </c>
       <c r="P140" s="38">
-        <v>16726400000000</v>
+        <v>74792400000</v>
       </c>
       <c r="Q140" s="38">
-        <v>16899000000000</v>
+        <v>74672300000</v>
       </c>
       <c r="R140" s="38">
-        <v>17221700000000</v>
+        <v>74319600000</v>
       </c>
       <c r="S140" s="38">
-        <v>17859500000000</v>
+        <v>74049500000</v>
       </c>
       <c r="T140" s="38">
-        <v>17716900000000</v>
+        <v>73779300000</v>
       </c>
       <c r="U140" s="38">
-        <v>18549900000000</v>
+        <v>73651800000</v>
       </c>
       <c r="V140" s="38">
-        <v>19052700000000</v>
+        <v>73299100000</v>
       </c>
       <c r="W140" s="38">
-        <v>19255300000000</v>
+        <v>73246500000</v>
       </c>
       <c r="X140" s="38">
-        <v>19112700000000</v>
+        <v>72976400000</v>
       </c>
       <c r="Y140" s="38">
-        <v>19090200000000</v>
+        <v>72916400000</v>
       </c>
       <c r="Z140" s="38">
-        <v>19157700000000</v>
+        <v>72496100000</v>
       </c>
       <c r="AA140" s="38">
-        <v>19412800000000</v>
+        <v>72068400000</v>
       </c>
       <c r="AB140" s="38">
-        <v>19502900000000</v>
+        <v>71940800000</v>
       </c>
       <c r="AC140" s="38">
-        <v>19345300000000</v>
+        <v>71588200000</v>
       </c>
       <c r="AD140" s="38">
-        <v>19195200000000</v>
+        <v>71243000000</v>
       </c>
       <c r="AE140" s="38">
-        <v>19457900000000</v>
+        <v>71258000000</v>
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.25">
@@ -17177,88 +17183,88 @@
         <v>368521000000</v>
       </c>
       <c r="D145" s="38">
-        <v>65712500000</v>
+        <v>576157000000</v>
       </c>
       <c r="E145" s="38">
-        <v>64054100000</v>
+        <v>460746000000</v>
       </c>
       <c r="F145" s="38">
-        <v>65607500000</v>
+        <v>430730000000</v>
       </c>
       <c r="G145" s="38">
-        <v>68714100000</v>
+        <v>392759000000</v>
       </c>
       <c r="H145" s="38">
-        <v>71880800000</v>
+        <v>370322000000</v>
       </c>
       <c r="I145" s="38">
-        <v>73479200000</v>
+        <v>356890000000</v>
       </c>
       <c r="J145" s="38">
-        <v>71235500000</v>
+        <v>354939000000</v>
       </c>
       <c r="K145" s="38">
-        <v>68931700000</v>
+        <v>354114000000</v>
       </c>
       <c r="L145" s="38">
-        <v>67295900000</v>
+        <v>355239000000</v>
       </c>
       <c r="M145" s="38">
-        <v>66260300000</v>
+        <v>357566000000</v>
       </c>
       <c r="N145" s="38">
-        <v>65630000000</v>
+        <v>362893000000</v>
       </c>
       <c r="O145" s="38">
-        <v>65585000000</v>
+        <v>367321000000</v>
       </c>
       <c r="P145" s="38">
-        <v>65389900000</v>
+        <v>370397000000</v>
       </c>
       <c r="Q145" s="38">
-        <v>65127200000</v>
+        <v>369872000000</v>
       </c>
       <c r="R145" s="38">
-        <v>64489400000</v>
+        <v>370172000000</v>
       </c>
       <c r="S145" s="38">
-        <v>63851500000</v>
+        <v>373999000000</v>
       </c>
       <c r="T145" s="38">
-        <v>63296200000</v>
+        <v>370623000000</v>
       </c>
       <c r="U145" s="38">
-        <v>62583400000</v>
+        <v>374900000000</v>
       </c>
       <c r="V145" s="38">
-        <v>61945500000</v>
+        <v>377076000000</v>
       </c>
       <c r="W145" s="38">
-        <v>61525300000</v>
+        <v>377526000000</v>
       </c>
       <c r="X145" s="38">
-        <v>60669800000</v>
+        <v>374300000000</v>
       </c>
       <c r="Y145" s="38">
-        <v>59881900000</v>
+        <v>372724000000</v>
       </c>
       <c r="Z145" s="38">
-        <v>59094000000</v>
+        <v>371973000000</v>
       </c>
       <c r="AA145" s="38">
-        <v>58381100000</v>
+        <v>370623000000</v>
       </c>
       <c r="AB145" s="38">
-        <v>57885900000</v>
+        <v>369347000000</v>
       </c>
       <c r="AC145" s="38">
-        <v>57097900000</v>
+        <v>366796000000</v>
       </c>
       <c r="AD145" s="38">
-        <v>56152400000</v>
+        <v>363494000000</v>
       </c>
       <c r="AE145" s="38">
-        <v>55582100000</v>
+        <v>362743000000</v>
       </c>
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.25">
@@ -21354,91 +21360,91 @@
         <v>132097000000000</v>
       </c>
       <c r="C189" s="38">
-        <v>130183000000000</v>
+        <v>132895000000000</v>
       </c>
       <c r="D189" s="38">
-        <v>135405000000000</v>
+        <v>133438000000000</v>
       </c>
       <c r="E189" s="38">
-        <v>135985000000000</v>
+        <v>130145000000000</v>
       </c>
       <c r="F189" s="38">
-        <v>135416000000000</v>
+        <v>126581000000000</v>
       </c>
       <c r="G189" s="38">
-        <v>136129000000000</v>
+        <v>125243000000000</v>
       </c>
       <c r="H189" s="38">
-        <v>136256000000000</v>
+        <v>123442000000000</v>
       </c>
       <c r="I189" s="38">
-        <v>137980000000000</v>
+        <v>123951000000000</v>
       </c>
       <c r="J189" s="38">
-        <v>138077000000000</v>
+        <v>121897000000000</v>
       </c>
       <c r="K189" s="38">
-        <v>138316000000000</v>
+        <v>121369000000000</v>
       </c>
       <c r="L189" s="38">
-        <v>138096000000000</v>
+        <v>119876000000000</v>
       </c>
       <c r="M189" s="38">
-        <v>138531000000000</v>
+        <v>119178000000000</v>
       </c>
       <c r="N189" s="38">
-        <v>137885000000000</v>
+        <v>116518000000000</v>
       </c>
       <c r="O189" s="38">
-        <v>139533000000000</v>
+        <v>115798000000000</v>
       </c>
       <c r="P189" s="38">
-        <v>139684000000000</v>
+        <v>114603000000000</v>
       </c>
       <c r="Q189" s="38">
-        <v>139534000000000</v>
+        <v>113008000000000</v>
       </c>
       <c r="R189" s="38">
-        <v>140166000000000</v>
+        <v>111908000000000</v>
       </c>
       <c r="S189" s="38">
-        <v>140246000000000</v>
+        <v>110104000000000</v>
       </c>
       <c r="T189" s="38">
-        <v>141087000000000</v>
+        <v>109300000000000</v>
       </c>
       <c r="U189" s="38">
-        <v>141442000000000</v>
+        <v>108153000000000</v>
       </c>
       <c r="V189" s="38">
-        <v>142017000000000</v>
+        <v>107486000000000</v>
       </c>
       <c r="W189" s="38">
-        <v>142489000000000</v>
+        <v>107391000000000</v>
       </c>
       <c r="X189" s="38">
-        <v>142813000000000</v>
+        <v>105871000000000</v>
       </c>
       <c r="Y189" s="38">
-        <v>143306000000000</v>
+        <v>104261000000000</v>
       </c>
       <c r="Z189" s="38">
-        <v>143360000000000</v>
+        <v>102139000000000</v>
       </c>
       <c r="AA189" s="38">
-        <v>142928000000000</v>
+        <v>100478000000000</v>
       </c>
       <c r="AB189" s="38">
-        <v>142975000000000</v>
+        <v>99100500000000</v>
       </c>
       <c r="AC189" s="38">
-        <v>142804000000000</v>
+        <v>98763400000000</v>
       </c>
       <c r="AD189" s="38">
-        <v>142476000000000</v>
+        <v>97804400000000</v>
       </c>
       <c r="AE189" s="38">
-        <v>141356000000000</v>
+        <v>95823200000000</v>
       </c>
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
@@ -23159,91 +23165,91 @@
         <v>531911000000</v>
       </c>
       <c r="C208" s="38">
-        <v>601275000000</v>
+        <v>623367000000</v>
       </c>
       <c r="D208" s="38">
-        <v>507298000000</v>
+        <v>522060000000</v>
       </c>
       <c r="E208" s="38">
-        <v>470747000000</v>
+        <v>495998000000</v>
       </c>
       <c r="F208" s="38">
-        <v>448587000000</v>
+        <v>473567000000</v>
       </c>
       <c r="G208" s="38">
-        <v>434815000000</v>
+        <v>454127000000</v>
       </c>
       <c r="H208" s="38">
-        <v>416998000000</v>
+        <v>433373000000</v>
       </c>
       <c r="I208" s="38">
-        <v>402880000000</v>
+        <v>420855000000</v>
       </c>
       <c r="J208" s="38">
-        <v>386617000000</v>
+        <v>406830000000</v>
       </c>
       <c r="K208" s="38">
-        <v>373209000000</v>
+        <v>391383000000</v>
       </c>
       <c r="L208" s="38">
-        <v>359005000000</v>
+        <v>375090000000</v>
       </c>
       <c r="M208" s="38">
-        <v>352210000000</v>
+        <v>365156000000</v>
       </c>
       <c r="N208" s="38">
-        <v>348684000000</v>
+        <v>358752000000</v>
       </c>
       <c r="O208" s="38">
-        <v>342880000000</v>
+        <v>353388000000</v>
       </c>
       <c r="P208" s="38">
-        <v>339322000000</v>
+        <v>348760000000</v>
       </c>
       <c r="Q208" s="38">
-        <v>335331000000</v>
+        <v>341999000000</v>
       </c>
       <c r="R208" s="38">
-        <v>334645000000</v>
+        <v>339478000000</v>
       </c>
       <c r="S208" s="38">
-        <v>332374000000</v>
+        <v>334268000000</v>
       </c>
       <c r="T208" s="38">
-        <v>328746000000</v>
+        <v>326632000000</v>
       </c>
       <c r="U208" s="38">
-        <v>323385000000</v>
+        <v>323704000000</v>
       </c>
       <c r="V208" s="38">
-        <v>321673000000</v>
+        <v>324447000000</v>
       </c>
       <c r="W208" s="38">
-        <v>320346000000</v>
+        <v>327074000000</v>
       </c>
       <c r="X208" s="38">
-        <v>320995000000</v>
+        <v>332298000000</v>
       </c>
       <c r="Y208" s="38">
-        <v>321585000000</v>
+        <v>337147000000</v>
       </c>
       <c r="Z208" s="38">
-        <v>320568000000</v>
+        <v>339061000000</v>
       </c>
       <c r="AA208" s="38">
-        <v>320369000000</v>
+        <v>339949000000</v>
       </c>
       <c r="AB208" s="38">
-        <v>319200000000</v>
+        <v>341492000000</v>
       </c>
       <c r="AC208" s="38">
-        <v>319582000000</v>
+        <v>342463000000</v>
       </c>
       <c r="AD208" s="38">
-        <v>320304000000</v>
+        <v>344362000000</v>
       </c>
       <c r="AE208" s="38">
-        <v>320869000000</v>
+        <v>345905000000</v>
       </c>
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.25">
@@ -23732,88 +23738,88 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>7.4957300000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>0.149674</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.224023</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>0.298147</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>0.37197000000000002</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0.44556800000000002</v>
+        <v>0</v>
       </c>
       <c r="J214">
-        <v>0.51886600000000005</v>
+        <v>0</v>
       </c>
       <c r="K214">
-        <v>0.59186300000000003</v>
+        <v>0</v>
       </c>
       <c r="L214">
-        <v>0.66463499999999998</v>
+        <v>0</v>
       </c>
       <c r="M214">
-        <v>0.73710699999999996</v>
+        <v>0</v>
       </c>
       <c r="N214">
-        <v>0.81108000000000002</v>
+        <v>0</v>
       </c>
       <c r="O214">
-        <v>0.88542900000000002</v>
+        <v>0</v>
       </c>
       <c r="P214">
-        <v>0.95902699999999996</v>
+        <v>0</v>
       </c>
       <c r="Q214">
-        <v>1.03338</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.10697</v>
+        <v>0</v>
       </c>
       <c r="S214">
-        <v>1.1813199999999999</v>
+        <v>0</v>
       </c>
       <c r="T214">
-        <v>1.2556700000000001</v>
+        <v>0</v>
       </c>
       <c r="U214">
-        <v>1.33002</v>
+        <v>0</v>
       </c>
       <c r="V214">
-        <v>1.4043699999999999</v>
+        <v>0</v>
       </c>
       <c r="W214">
-        <v>1.47872</v>
+        <v>0</v>
       </c>
       <c r="X214">
-        <v>1.55307</v>
+        <v>0</v>
       </c>
       <c r="Y214">
-        <v>1.6274200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z214">
-        <v>1.70177</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>1.7761100000000001</v>
+        <v>0</v>
       </c>
       <c r="AB214">
-        <v>1.85046</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>1.9248099999999999</v>
+        <v>0</v>
       </c>
       <c r="AD214">
-        <v>1.9999100000000001</v>
+        <v>0</v>
       </c>
       <c r="AE214">
-        <v>2.0742600000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.25">
@@ -25157,88 +25163,88 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>7.4957300000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>0.149674</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.224023</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>0.298147</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>0.37197000000000002</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>0.44556800000000002</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>0.51886600000000005</v>
+        <v>0</v>
       </c>
       <c r="K229">
-        <v>0.59186300000000003</v>
+        <v>0</v>
       </c>
       <c r="L229">
-        <v>0.66463499999999998</v>
+        <v>0</v>
       </c>
       <c r="M229">
-        <v>0.73710699999999996</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>0.81108000000000002</v>
+        <v>0</v>
       </c>
       <c r="O229">
-        <v>0.88542900000000002</v>
+        <v>0</v>
       </c>
       <c r="P229">
-        <v>0.95902699999999996</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>1.03338</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.10697</v>
+        <v>0</v>
       </c>
       <c r="S229">
-        <v>1.1813199999999999</v>
+        <v>0</v>
       </c>
       <c r="T229">
-        <v>1.2556700000000001</v>
+        <v>0</v>
       </c>
       <c r="U229">
-        <v>1.33002</v>
+        <v>0</v>
       </c>
       <c r="V229">
-        <v>1.4043699999999999</v>
+        <v>0</v>
       </c>
       <c r="W229">
-        <v>1.47872</v>
+        <v>0</v>
       </c>
       <c r="X229">
-        <v>1.55307</v>
+        <v>0</v>
       </c>
       <c r="Y229">
-        <v>1.6274200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z229">
-        <v>1.70177</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>1.7761100000000001</v>
+        <v>0</v>
       </c>
       <c r="AB229">
-        <v>1.85046</v>
+        <v>0</v>
       </c>
       <c r="AC229">
-        <v>1.9248099999999999</v>
+        <v>0</v>
       </c>
       <c r="AD229">
-        <v>1.9999100000000001</v>
+        <v>0</v>
       </c>
       <c r="AE229">
-        <v>2.0742600000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:31" x14ac:dyDescent="0.25">
@@ -26107,7 +26113,7 @@
         <v>0</v>
       </c>
       <c r="D239" s="38">
-        <v>292181000000</v>
+        <v>287935000000</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -26677,88 +26683,88 @@
         <v>26378600000</v>
       </c>
       <c r="D245" s="38">
-        <v>0</v>
+        <v>24756100000</v>
       </c>
       <c r="E245" s="38">
-        <v>0</v>
+        <v>88502400000</v>
       </c>
       <c r="F245" s="38">
-        <v>0</v>
+        <v>85122100000</v>
       </c>
       <c r="G245" s="38">
-        <v>0</v>
+        <v>82233500000</v>
       </c>
       <c r="H245" s="38">
-        <v>0</v>
+        <v>80819900000</v>
       </c>
       <c r="I245" s="38">
-        <v>0</v>
+        <v>80143800000</v>
       </c>
       <c r="J245" s="38">
-        <v>0</v>
+        <v>80143800000</v>
       </c>
       <c r="K245" s="38">
-        <v>0</v>
+        <v>80143800000</v>
       </c>
       <c r="L245" s="38">
-        <v>0</v>
+        <v>80143800000</v>
       </c>
       <c r="M245" s="38">
-        <v>0</v>
+        <v>80389700000</v>
       </c>
       <c r="N245" s="38">
-        <v>0</v>
+        <v>80942800000</v>
       </c>
       <c r="O245" s="38">
-        <v>0</v>
+        <v>81373000000</v>
       </c>
       <c r="P245" s="38">
-        <v>0</v>
+        <v>81926200000</v>
       </c>
       <c r="Q245" s="38">
-        <v>0</v>
+        <v>82294900000</v>
       </c>
       <c r="R245" s="38">
-        <v>0</v>
+        <v>82786600000</v>
       </c>
       <c r="S245" s="38">
-        <v>0</v>
+        <v>83462700000</v>
       </c>
       <c r="T245" s="38">
-        <v>0</v>
+        <v>83892900000</v>
       </c>
       <c r="U245" s="38">
-        <v>0</v>
+        <v>84753300000</v>
       </c>
       <c r="V245" s="38">
-        <v>0</v>
+        <v>85552300000</v>
       </c>
       <c r="W245" s="38">
-        <v>0</v>
+        <v>86351300000</v>
       </c>
       <c r="X245" s="38">
-        <v>0</v>
+        <v>86965900000</v>
       </c>
       <c r="Y245" s="38">
-        <v>0</v>
+        <v>87703400000</v>
       </c>
       <c r="Z245" s="38">
-        <v>0</v>
+        <v>88379500000</v>
       </c>
       <c r="AA245" s="38">
-        <v>0</v>
+        <v>88994100000</v>
       </c>
       <c r="AB245" s="38">
-        <v>0</v>
+        <v>89793100000</v>
       </c>
       <c r="AC245" s="38">
-        <v>0</v>
+        <v>90407700000</v>
       </c>
       <c r="AD245" s="38">
-        <v>0</v>
+        <v>90899300000</v>
       </c>
       <c r="AE245" s="38">
-        <v>0</v>
+        <v>91821200000</v>
       </c>
     </row>
     <row r="246" spans="1:31" x14ac:dyDescent="0.25">
@@ -30128,119 +30134,119 @@
       </c>
       <c r="C282" s="38">
         <f t="shared" ref="C282:AE282" si="0">SUM(C39,C64,C89,C114,C139,C164,C189,C214,C239,C264)</f>
-        <v>179964980000000</v>
+        <v>183714010000000</v>
       </c>
       <c r="D282" s="38">
         <f t="shared" si="0"/>
-        <v>184370831000000.06</v>
+        <v>181692235000000</v>
       </c>
       <c r="E282" s="38">
         <f t="shared" si="0"/>
-        <v>172384540000000.16</v>
+        <v>164981338300000</v>
       </c>
       <c r="F282" s="38">
         <f t="shared" si="0"/>
-        <v>171672311600000.22</v>
+        <v>160471747400000</v>
       </c>
       <c r="G282" s="38">
         <f t="shared" si="0"/>
-        <v>172857483200000.31</v>
+        <v>159034381100000</v>
       </c>
       <c r="H282" s="38">
         <f t="shared" si="0"/>
-        <v>172432645400000.38</v>
+        <v>156216417600000</v>
       </c>
       <c r="I282" s="38">
         <f t="shared" si="0"/>
-        <v>175138217000000.44</v>
+        <v>157331068100000</v>
       </c>
       <c r="J282" s="38">
         <f t="shared" si="0"/>
-        <v>176646588600000.53</v>
+        <v>155947091600000</v>
       </c>
       <c r="K282" s="38">
         <f t="shared" si="0"/>
-        <v>178168560200000.59</v>
+        <v>156338880200000</v>
       </c>
       <c r="L282" s="38">
         <f t="shared" si="0"/>
-        <v>177540131800000.66</v>
+        <v>154116203500000</v>
       </c>
       <c r="M282" s="38">
         <f t="shared" si="0"/>
-        <v>177514503400000.75</v>
+        <v>152715353700000</v>
       </c>
       <c r="N282" s="38">
         <f t="shared" si="0"/>
-        <v>176872903400000.81</v>
+        <v>149464208000000</v>
       </c>
       <c r="O282" s="38">
         <f t="shared" si="0"/>
-        <v>178691612800000.88</v>
+        <v>148295772000000</v>
       </c>
       <c r="P282" s="38">
         <f t="shared" si="0"/>
-        <v>178666012800000.97</v>
+        <v>146585519600000</v>
       </c>
       <c r="Q282" s="38">
         <f t="shared" si="0"/>
-        <v>178708022300001.03</v>
+        <v>144734857400000</v>
       </c>
       <c r="R282" s="38">
         <f t="shared" si="0"/>
-        <v>179064522300001.09</v>
+        <v>142964572000000</v>
       </c>
       <c r="S282" s="38">
         <f t="shared" si="0"/>
-        <v>179595531800001.19</v>
+        <v>140996264600000</v>
       </c>
       <c r="T282" s="38">
         <f t="shared" si="0"/>
-        <v>180378131800001.25</v>
+        <v>139738897300000</v>
       </c>
       <c r="U282" s="38">
         <f t="shared" si="0"/>
-        <v>180711941200001.34</v>
+        <v>138180642400000</v>
       </c>
       <c r="V282" s="38">
         <f t="shared" si="0"/>
-        <v>181637141200001.41</v>
+        <v>137472616500000</v>
       </c>
       <c r="W282" s="38">
         <f t="shared" si="0"/>
-        <v>181918141200001.47</v>
+        <v>137107865300000</v>
       </c>
       <c r="X282" s="38">
         <f t="shared" si="0"/>
-        <v>182231550700001.56</v>
+        <v>135092872900000</v>
       </c>
       <c r="Y282" s="38">
         <f t="shared" si="0"/>
-        <v>182793550700001.63</v>
+        <v>132989950400000</v>
       </c>
       <c r="Z282" s="38">
         <f t="shared" si="0"/>
-        <v>183325886800001.69</v>
+        <v>130613154600000</v>
       </c>
       <c r="AA282" s="38">
         <f t="shared" si="0"/>
-        <v>180879204000001.78</v>
+        <v>127157550000000</v>
       </c>
       <c r="AB282" s="38">
         <f t="shared" si="0"/>
-        <v>181979240000001.84</v>
+        <v>126135566000000</v>
       </c>
       <c r="AC282" s="38">
         <f t="shared" si="0"/>
-        <v>184666500000001.94</v>
+        <v>127715580000000</v>
       </c>
       <c r="AD282" s="38">
         <f t="shared" si="0"/>
-        <v>185339680000002</v>
+        <v>127228610000000</v>
       </c>
       <c r="AE282" s="38">
         <f t="shared" si="0"/>
-        <v>184862630000002.06</v>
+        <v>125315760000000</v>
       </c>
     </row>
     <row r="283" spans="1:31" x14ac:dyDescent="0.25">
@@ -31679,83 +31685,83 @@
       </c>
       <c r="L10">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!L1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!L282</f>
-        <v>5.9003997687245381E-2</v>
+        <v>6.797194122498923E-2</v>
       </c>
       <c r="M10">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!M1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!M282</f>
-        <v>0.11802503260835458</v>
+        <v>0.13719088843809527</v>
       </c>
       <c r="N10">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!N1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!N282</f>
-        <v>0.1776797461581178</v>
+        <v>0.21026259730598132</v>
       </c>
       <c r="O10">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!O1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!O282</f>
-        <v>0.23449511394460765</v>
+        <v>0.28255903414752725</v>
       </c>
       <c r="P10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!P282</f>
-        <v>0.29316089170934984</v>
+        <v>0.3573196573135618</v>
       </c>
       <c r="Q10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!Q282</f>
-        <v>0.293091977385741</v>
+        <v>0.36188854966600742</v>
       </c>
       <c r="R10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!R282</f>
-        <v>0.29250845984359503</v>
+        <v>0.36636970193288443</v>
       </c>
       <c r="S10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!S282</f>
-        <v>0.29164360107205101</v>
+        <v>0.37148422179265589</v>
       </c>
       <c r="T10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!T282</f>
-        <v>0.2903782576519735</v>
+        <v>0.37482682805313933</v>
       </c>
       <c r="U10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!U282</f>
-        <v>0.28984187366253589</v>
+        <v>0.3790537279381066</v>
       </c>
       <c r="V10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!V282</f>
-        <v>0.28836551425861129</v>
+        <v>0.38100597023700644</v>
       </c>
       <c r="W10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!W282</f>
-        <v>0.28792009024002702</v>
+        <v>0.38201956916181673</v>
       </c>
       <c r="X10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!X282</f>
-        <v>0.28742491313608709</v>
+        <v>0.38771762348539407</v>
       </c>
       <c r="Y10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!Y282</f>
-        <v>0.28654122330915438</v>
+        <v>0.39384846353474839</v>
       </c>
       <c r="Z10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!Z282</f>
-        <v>0.28570917367356718</v>
+        <v>0.40101540913707018</v>
       </c>
       <c r="AA10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!AA282</f>
-        <v>0.28957385079271958</v>
+        <v>0.41191331250564672</v>
       </c>
       <c r="AB10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!AB282</f>
-        <v>0.28782342222443541</v>
+        <v>0.41525074403362489</v>
       </c>
       <c r="AC10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!AC282</f>
-        <v>0.283635026551117</v>
+        <v>0.41011353219867458</v>
       </c>
       <c r="AD10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!AD282</f>
-        <v>0.28260482391359387</v>
+        <v>0.411683249786368</v>
       </c>
       <c r="AE10" s="38">
         <f>(MAX(TREND('Current and Planned Capacity'!$C$35:$D$35,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-energyEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12)/'BAU Emissions'!AE282</f>
-        <v>0.28333410398089554</v>
+        <v>0.41796728225246688</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -33291,8 +33297,8 @@
   </sheetPr>
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33591,95 +33597,125 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
+      <c r="B4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!B$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!B6</f>
+        <v>0.21549849040119179</v>
+      </c>
+      <c r="C4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!C$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!C6</f>
+        <v>0.21164065551690972</v>
+      </c>
+      <c r="D4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!D$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!D6</f>
+        <v>0.20477727242789551</v>
+      </c>
+      <c r="E4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!E$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!E6</f>
+        <v>0.20255537970330223</v>
+      </c>
+      <c r="F4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!F$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!F6</f>
+        <v>0.21153343731059926</v>
+      </c>
+      <c r="G4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!G$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!G6</f>
+        <v>0.21409874458437661</v>
+      </c>
+      <c r="H4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!H$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!H6</f>
+        <v>0.21328152881135307</v>
+      </c>
+      <c r="I4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!I$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!I6</f>
+        <v>0.2123795236092286</v>
+      </c>
+      <c r="J4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!J$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!J6</f>
+        <v>0.20976246638696389</v>
+      </c>
+      <c r="K4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!K$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!K6</f>
+        <v>0.21080823195717815</v>
+      </c>
+      <c r="L4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!L$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!L6</f>
+        <v>0.21184826952733757</v>
+      </c>
+      <c r="M4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!M$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!M6</f>
+        <v>0.2148995110638012</v>
+      </c>
+      <c r="N4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!N$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!N6</f>
+        <v>0.21757159751446298</v>
+      </c>
+      <c r="O4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!O$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!O6</f>
+        <v>0.21760789548266654</v>
+      </c>
+      <c r="P4" s="38">
+        <f>MAX(TREND('Current and Planned Capacity'!$B$29:$C$29,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!P6</f>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="Q4" s="38">
+        <f>P4</f>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="R4" s="38">
+        <f t="shared" ref="R4:AE4" si="0">Q4</f>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="S4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="T4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="U4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="V4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="W4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="X4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="Y4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="Z4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="AA4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="AB4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="AC4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="AD4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
+      </c>
+      <c r="AE4" s="38">
+        <f t="shared" si="0"/>
+        <v>0.21896791807299862</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -34270,11 +34306,11 @@
       </c>
       <c r="E11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$B$36:$C$36,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!E$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!E13</f>
-        <v>6.8783283702936723E-2</v>
+        <v>6.8967491747133139E-2</v>
       </c>
       <c r="F11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$B$36:$C$36,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!F$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!F13</f>
-        <v>0.10331306033580538</v>
+        <v>0.10354509416025413</v>
       </c>
       <c r="G11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$B$36:$C$36,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!G$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!G13</f>
@@ -34282,99 +34318,99 @@
       </c>
       <c r="H11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$B$36:$C$36,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!H$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!H13</f>
-        <v>0.15450199786543503</v>
+        <v>0.15393900255827311</v>
       </c>
       <c r="I11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$B$36:$C$36,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!I$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!I13</f>
-        <v>0.17890444476678091</v>
+        <v>0.17845014196138026</v>
       </c>
       <c r="J11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$B$36:$C$36,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!J$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!J13</f>
-        <v>0.2029012139229675</v>
+        <v>0.20229614072041394</v>
       </c>
       <c r="K11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$B$36:$C$36,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!K$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!K13</f>
-        <v>0.22735692419507997</v>
+        <v>0.22691090766894936</v>
       </c>
       <c r="L11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!L$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!L13</f>
-        <v>0.22405391803243957</v>
+        <v>0.22394546986301439</v>
       </c>
       <c r="M11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!M$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!M13</f>
-        <v>0.21990082734647706</v>
+        <v>0.2193794882584105</v>
       </c>
       <c r="N11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!N$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!N13</f>
-        <v>0.21589889908398868</v>
+        <v>0.21529611016146474</v>
       </c>
       <c r="O11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!O$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!O13</f>
-        <v>0.21242944937419087</v>
+        <v>0.2115552541092765</v>
       </c>
       <c r="P11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!P13</f>
-        <v>0.20859844036834432</v>
+        <v>0.20710444974798017</v>
       </c>
       <c r="Q11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Q13</f>
-        <v>0.2051757608589746</v>
+        <v>0.20328266288971342</v>
       </c>
       <c r="R11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!R13</f>
-        <v>0.2025706395520962</v>
+        <v>0.2009866814669799</v>
       </c>
       <c r="S11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!S13</f>
-        <v>0.1995993704646194</v>
+        <v>0.19823108000727838</v>
       </c>
       <c r="T11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!T13</f>
-        <v>0.19738538427345892</v>
+        <v>0.19571545716454641</v>
       </c>
       <c r="U11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!U13</f>
-        <v>0.19439972299873434</v>
+        <v>0.1934244735522524</v>
       </c>
       <c r="V11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!V13</f>
-        <v>0.19071366065003617</v>
+        <v>0.1888454451987705</v>
       </c>
       <c r="W11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!W13</f>
-        <v>0.18777245971468659</v>
+        <v>0.18484672023051849</v>
       </c>
       <c r="X11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!X13</f>
-        <v>0.18506853629479508</v>
+        <v>0.18201075560070329</v>
       </c>
       <c r="Y11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Y13</f>
-        <v>0.1822976125835255</v>
+        <v>0.17912169598799371</v>
       </c>
       <c r="Z11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Z13</f>
-        <v>0.18016796757670861</v>
+        <v>0.17774542479331068</v>
       </c>
       <c r="AA11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AA13</f>
-        <v>0.17822470752580422</v>
+        <v>0.1763229194881813</v>
       </c>
       <c r="AB11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AB13</f>
-        <v>0.17545367490974126</v>
+        <v>0.17479083518586616</v>
       </c>
       <c r="AC11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AC13</f>
-        <v>0.17250982130387313</v>
+        <v>0.17257416663073022</v>
       </c>
       <c r="AD11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AD13</f>
-        <v>0.17091663861728398</v>
+        <v>0.16997477617082576</v>
       </c>
       <c r="AE11" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$36:$D$36,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AE13</f>
-        <v>0.16842786339169558</v>
+        <v>0.16781695347732598</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -34613,83 +34649,83 @@
       </c>
       <c r="L14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!L$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!L16</f>
-        <v>0.11498482532183525</v>
+        <v>0.11489402393305781</v>
       </c>
       <c r="M14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!M$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!M16</f>
-        <v>0.22727539542915209</v>
+        <v>0.22736418644182138</v>
       </c>
       <c r="N14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!N$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!N16</f>
-        <v>0.33809635702686808</v>
+        <v>0.33835844722611369</v>
       </c>
       <c r="O14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!O$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!O16</f>
-        <v>0.44911372030527241</v>
+        <v>0.44951843143325088</v>
       </c>
       <c r="P14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!P16</f>
-        <v>0.55759120710486276</v>
+        <v>0.55773370421886859</v>
       </c>
       <c r="Q14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Q16</f>
-        <v>0.5493108443514807</v>
+        <v>0.5488273568737414</v>
       </c>
       <c r="R14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!R16</f>
-        <v>0.54282103833066353</v>
+        <v>0.54194486829114297</v>
       </c>
       <c r="S14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!S16</f>
-        <v>0.53740753129978647</v>
+        <v>0.53668067984960843</v>
       </c>
       <c r="T14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!T16</f>
-        <v>0.53177679936852651</v>
+        <v>0.53100048287309798</v>
       </c>
       <c r="U14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!U16</f>
-        <v>0.5275349249718233</v>
+        <v>0.52683451650173396</v>
       </c>
       <c r="V14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!V16</f>
-        <v>0.52185843725691838</v>
+        <v>0.52135976698720321</v>
       </c>
       <c r="W14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!W16</f>
-        <v>0.51575374798734086</v>
+        <v>0.51471980769066816</v>
       </c>
       <c r="X14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!X16</f>
-        <v>0.51098384092915772</v>
+        <v>0.50961167182917289</v>
       </c>
       <c r="Y14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Y16</f>
-        <v>0.50860218704461269</v>
+        <v>0.50724276225646314</v>
       </c>
       <c r="Z14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Z16</f>
-        <v>0.50291784413145124</v>
+        <v>0.50193467907277667</v>
       </c>
       <c r="AA14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AA16</f>
-        <v>0.49651051862323575</v>
+        <v>0.49622828208468234</v>
       </c>
       <c r="AB14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AB16</f>
-        <v>0.49147888404648865</v>
+        <v>0.49170034574933713</v>
       </c>
       <c r="AC14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AC16</f>
-        <v>0.48643976030501124</v>
+        <v>0.48709116942493758</v>
       </c>
       <c r="AD14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AD16</f>
-        <v>0.48272771170281636</v>
+        <v>0.48331568699112676</v>
       </c>
       <c r="AE14" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$39:$D$39,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AE16</f>
-        <v>0.47938758585577879</v>
+        <v>0.47954559099284394</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -34738,83 +34774,83 @@
       </c>
       <c r="L15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!L$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!L17</f>
-        <v>5.6567957018301543E-2</v>
+        <v>5.6976723141277615E-2</v>
       </c>
       <c r="M15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!M$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!M17</f>
-        <v>0.11337205114847897</v>
+        <v>0.11421969265239283</v>
       </c>
       <c r="N15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!N$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!N17</f>
-        <v>0.16834031837199306</v>
+        <v>0.16935113783565861</v>
       </c>
       <c r="O15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!O$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!O17</f>
-        <v>0.22522934095935548</v>
+        <v>0.22627182807326129</v>
       </c>
       <c r="P15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!P17</f>
-        <v>0.28173137652852065</v>
+        <v>0.28160154640108814</v>
       </c>
       <c r="Q15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Q17</f>
-        <v>0.28088961419920078</v>
+        <v>0.27973236699032333</v>
       </c>
       <c r="R15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!R17</f>
-        <v>0.28011705509528367</v>
+        <v>0.27941259976696908</v>
       </c>
       <c r="S15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!S17</f>
-        <v>0.27694328379350164</v>
+        <v>0.27669248616271735</v>
       </c>
       <c r="T15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!T17</f>
-        <v>0.2750114112017828</v>
+        <v>0.27427080596515319</v>
       </c>
       <c r="U15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!U17</f>
-        <v>0.27445558306326578</v>
+        <v>0.27457890617405589</v>
       </c>
       <c r="V15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!V17</f>
-        <v>0.27328951506724569</v>
+        <v>0.27274061847371628</v>
       </c>
       <c r="W15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!W17</f>
-        <v>0.27122741042625892</v>
+        <v>0.26860455195180716</v>
       </c>
       <c r="X15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!X17</f>
-        <v>0.2691369106762217</v>
+        <v>0.26655413552469415</v>
       </c>
       <c r="Y15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Y17</f>
-        <v>0.2683097061209051</v>
+        <v>0.26620577464184769</v>
       </c>
       <c r="Z15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Z17</f>
-        <v>0.26825081461385486</v>
+        <v>0.26754612771031583</v>
       </c>
       <c r="AA15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AA17</f>
-        <v>0.26890004650840982</v>
+        <v>0.26937419250181238</v>
       </c>
       <c r="AB15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AB17</f>
-        <v>0.26848653589207438</v>
+        <v>0.2701482562733693</v>
       </c>
       <c r="AC15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AC17</f>
-        <v>0.26725359968963974</v>
+        <v>0.26990960940386982</v>
       </c>
       <c r="AD15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AD17</f>
-        <v>0.2670783897248083</v>
+        <v>0.26813310912258065</v>
       </c>
       <c r="AE15" s="38">
         <f>MAX(TREND('Current and Planned Capacity'!$C$40:$D$40,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AE17</f>
-        <v>0.26672865809269375</v>
+        <v>0.26719517083094069</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -35581,125 +35617,95 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!B$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!B26</f>
-        <v>0.44456540427208824</v>
-      </c>
-      <c r="C24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!C$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!C26</f>
-        <v>0.45264841162248987</v>
-      </c>
-      <c r="D24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!D$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!D26</f>
-        <v>0.43541296157746129</v>
-      </c>
-      <c r="E24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!E$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!E26</f>
-        <v>0.45978893972862012</v>
-      </c>
-      <c r="F24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!F$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!F26</f>
-        <v>0.48644619226255215</v>
-      </c>
-      <c r="G24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!G$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!G26</f>
-        <v>0.49940777679826848</v>
-      </c>
-      <c r="H24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!H$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!H26</f>
-        <v>0.50928512265154713</v>
-      </c>
-      <c r="I24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!I$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!I26</f>
-        <v>0.52649627644250141</v>
-      </c>
-      <c r="J24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!J$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!J26</f>
-        <v>0.53812898250618901</v>
-      </c>
-      <c r="K24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$B$49:$C$49,'Current and Planned Capacity'!$B$26:$C$26,'BFoCPAbI-processEmis'!K$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!K26</f>
-        <v>0.54925036183617659</v>
-      </c>
-      <c r="L24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!L$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!L26</f>
-        <v>0.55426336117039565</v>
-      </c>
-      <c r="M24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!M$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!M26</f>
-        <v>0.55959281656626481</v>
-      </c>
-      <c r="N24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!N$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!N26</f>
-        <v>0.56229616350619849</v>
-      </c>
-      <c r="O24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!O$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!O26</f>
-        <v>0.56388521201025321</v>
-      </c>
-      <c r="P24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!P26</f>
-        <v>0.56548326726696241</v>
-      </c>
-      <c r="Q24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Q26</f>
-        <v>0.56525441932391629</v>
-      </c>
-      <c r="R24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!R26</f>
-        <v>0.56320309280217629</v>
-      </c>
-      <c r="S24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!S26</f>
-        <v>0.56004156782253289</v>
-      </c>
-      <c r="T24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!T26</f>
-        <v>0.55558618542139904</v>
-      </c>
-      <c r="U24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!U26</f>
-        <v>0.55207259689699484</v>
-      </c>
-      <c r="V24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!V26</f>
-        <v>0.54774261574486161</v>
-      </c>
-      <c r="W24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!W26</f>
-        <v>0.54475182143112211</v>
-      </c>
-      <c r="X24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!X26</f>
-        <v>0.54137351556178182</v>
-      </c>
-      <c r="Y24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Y26</f>
-        <v>0.53824418888223391</v>
-      </c>
-      <c r="Z24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!Z26</f>
-        <v>0.53597224487697503</v>
-      </c>
-      <c r="AA24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AA26</f>
-        <v>0.53331182518113673</v>
-      </c>
-      <c r="AB24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AB26</f>
-        <v>0.53371940013351049</v>
-      </c>
-      <c r="AC24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AC26</f>
-        <v>0.53148541482092737</v>
-      </c>
-      <c r="AD24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AD26</f>
-        <v>0.52786986778132916</v>
-      </c>
-      <c r="AE24" s="38">
-        <f>MAX(TREND('Current and Planned Capacity'!$C$49:$D$49,'Current and Planned Capacity'!$C$26:$D$26,'BFoCPAbI-processEmis'!$P$1),0)*'Capacity Factor Data'!$A$45*10^12/'BAU Emissions'!AE26</f>
-        <v>0.5250916053193222</v>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
